--- a/5-COMPROMISOS 2025.xlsx
+++ b/5-COMPROMISOS 2025.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4948CF6-1DEA-4B15-99F0-07B872A40253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AD2CAC-A3E0-4B68-8F1A-C1072214761F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1235,7 +1235,7 @@
     <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1344,9 +1344,6 @@
     <xf numFmtId="9" fontId="27" fillId="41" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="27" fillId="41" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1520,9 +1517,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="44" fontId="27" fillId="41" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1595,6 +1589,39 @@
     <xf numFmtId="1" fontId="1" fillId="44" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="45" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="44" fontId="27" fillId="45" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="169" fontId="27" fillId="45" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="27" fillId="45" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="45" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="45" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="45" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="45" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="45" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1619,38 +1646,8 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="45" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="44" fontId="27" fillId="45" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="169" fontId="27" fillId="45" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="27" fillId="45" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="45" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="45" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="45" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="45" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="45" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -2764,61 +2761,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9BEAD0-786A-4F3A-BCD3-DA7444CB9941}">
   <dimension ref="A1:CO89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="41" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="41" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="41" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="41" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="41" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="41" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" style="41" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="42" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="42" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" style="41" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" style="41" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="41" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="40" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="40" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="40" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="40" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="40" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" style="40" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="41" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="41" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" style="40" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" style="40" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="40" customWidth="1"/>
     <col min="15" max="15" width="2.7109375" customWidth="1"/>
     <col min="16" max="88" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:78" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="136"/>
-      <c r="T2" s="136"/>
-      <c r="U2" s="136"/>
-      <c r="V2" s="137"/>
-      <c r="W2" s="137"/>
-      <c r="X2" s="137"/>
-      <c r="Y2" s="137"/>
-      <c r="Z2" s="137"/>
-      <c r="AA2" s="137"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="144"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="146"/>
+      <c r="W2" s="146"/>
+      <c r="X2" s="146"/>
+      <c r="Y2" s="146"/>
+      <c r="Z2" s="146"/>
+      <c r="AA2" s="146"/>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
@@ -2879,7 +2876,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="43"/>
+      <c r="N3" s="42"/>
       <c r="O3" s="6"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="1"/>
@@ -2887,98 +2884,98 @@
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:78" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="80" t="s">
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="79" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
       <c r="L4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="M4" s="9"/>
-      <c r="N4" s="47"/>
+      <c r="N4" s="46"/>
       <c r="O4" s="8"/>
-      <c r="P4" s="138" t="s">
+      <c r="P4" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="138"/>
-      <c r="R4" s="138"/>
-      <c r="S4" s="138"/>
-      <c r="U4" s="139" t="s">
+      <c r="Q4" s="147"/>
+      <c r="R4" s="147"/>
+      <c r="S4" s="147"/>
+      <c r="U4" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="139"/>
-      <c r="W4" s="139"/>
-      <c r="X4" s="139"/>
-      <c r="Z4" s="140" t="s">
+      <c r="V4" s="148"/>
+      <c r="W4" s="148"/>
+      <c r="X4" s="148"/>
+      <c r="Z4" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="AA4" s="140"/>
-      <c r="AB4" s="140"/>
-      <c r="AC4" s="140"/>
-      <c r="AE4" s="133" t="s">
+      <c r="AA4" s="149"/>
+      <c r="AB4" s="149"/>
+      <c r="AC4" s="149"/>
+      <c r="AE4" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="AF4" s="133"/>
-      <c r="AG4" s="133"/>
-      <c r="AH4" s="133"/>
-      <c r="AJ4" s="134" t="s">
+      <c r="AF4" s="142"/>
+      <c r="AG4" s="142"/>
+      <c r="AH4" s="142"/>
+      <c r="AJ4" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="AK4" s="134"/>
-      <c r="AL4" s="134"/>
-      <c r="AM4" s="134"/>
+      <c r="AK4" s="143"/>
+      <c r="AL4" s="143"/>
+      <c r="AM4" s="143"/>
     </row>
     <row r="5" spans="1:78" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="82"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="81"/>
       <c r="G5" s="7"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="46"/>
+      <c r="N5" s="45"/>
       <c r="O5" s="8"/>
     </row>
     <row r="6" spans="1:78" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="84" cm="1">
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="83" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">IFERROR(IF(MIN(Hitos4352[FECHA INICIAL])=0,TODAY(),#REF!(Hitos4352[FECHA INICIAL])),TODAY())</f>
-        <v>45944</v>
-      </c>
-      <c r="G6" s="84"/>
+        <v>46017</v>
+      </c>
+      <c r="G6" s="83"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="46"/>
+      <c r="N6" s="45"/>
       <c r="O6" s="8"/>
       <c r="P6" s="14" t="str">
         <f ca="1">TEXT(P7,"mmmm")</f>
-        <v>octubre</v>
+        <v>diciembre</v>
       </c>
       <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
@@ -2988,7 +2985,7 @@
       <c r="V6" s="14"/>
       <c r="W6" s="14" t="str">
         <f ca="1">IF(TEXT(W7,"mmmm")=P6,"",TEXT(W7,"mmmm"))</f>
-        <v/>
+        <v>enero</v>
       </c>
       <c r="X6" s="14"/>
       <c r="Y6" s="14"/>
@@ -3008,7 +3005,7 @@
       <c r="AJ6" s="14"/>
       <c r="AK6" s="14" t="str">
         <f ca="1">IF(OR(TEXT(AK7,"mmmm")=AD6,TEXT(AK7,"mmmm")=W6,TEXT(AK7,"mmmm")=P6),"",TEXT(AK7,"mmmm"))</f>
-        <v>noviembre</v>
+        <v/>
       </c>
       <c r="AL6" s="14"/>
       <c r="AM6" s="14"/>
@@ -3038,7 +3035,7 @@
       <c r="BE6" s="15"/>
       <c r="BF6" s="15" t="str">
         <f ca="1">IF(OR(TEXT(BF7,"mmmm")=AY6,TEXT(BF7,"mmmm")=AR6,TEXT(BF7,"mmmm")=AK6,TEXT(BF7,"mmmm")=AD6),"",TEXT(BF7,"mmmm"))</f>
-        <v/>
+        <v>febrero</v>
       </c>
       <c r="BG6" s="15"/>
       <c r="BH6" s="15"/>
@@ -3048,7 +3045,7 @@
       <c r="BL6" s="13"/>
       <c r="BM6" s="13" t="str">
         <f ca="1">IF(OR(TEXT(BM7,"mmmm")=BF6,TEXT(BM7,"mmmm")=AY6,TEXT(BM7,"mmmm")=AR6,TEXT(BM7,"mmmm")=AK6),"",TEXT(BM7,"mmmm"))</f>
-        <v>diciembre</v>
+        <v/>
       </c>
       <c r="BN6" s="13"/>
       <c r="BO6" s="13"/>
@@ -3058,13 +3055,13 @@
       <c r="BS6" s="13"/>
     </row>
     <row r="7" spans="1:78" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="85">
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="84">
         <v>1</v>
       </c>
       <c r="G7" s="7"/>
@@ -3074,241 +3071,241 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="46"/>
+      <c r="N7" s="45"/>
       <c r="O7" s="10"/>
       <c r="P7" s="18">
         <f ca="1">IFERROR(Inicio_del_proyecto+Incremento_de_desplazamiento,TODAY())</f>
-        <v>45945</v>
+        <v>46018</v>
       </c>
       <c r="Q7" s="19">
         <f ca="1">P7+1</f>
-        <v>45946</v>
+        <v>46019</v>
       </c>
       <c r="R7" s="19">
         <f t="shared" ref="R7:BE7" ca="1" si="0">Q7+1</f>
-        <v>45947</v>
+        <v>46020</v>
       </c>
       <c r="S7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>45948</v>
+        <v>46021</v>
       </c>
       <c r="T7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>45949</v>
+        <v>46022</v>
       </c>
       <c r="U7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>45950</v>
+        <v>46023</v>
       </c>
       <c r="V7" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>45951</v>
+        <v>46024</v>
       </c>
       <c r="W7" s="19">
         <f ca="1">V7+1</f>
-        <v>45952</v>
+        <v>46025</v>
       </c>
       <c r="X7" s="19">
         <f ca="1">W7+1</f>
-        <v>45953</v>
+        <v>46026</v>
       </c>
       <c r="Y7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>45954</v>
+        <v>46027</v>
       </c>
       <c r="Z7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>45955</v>
+        <v>46028</v>
       </c>
       <c r="AA7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>45956</v>
+        <v>46029</v>
       </c>
       <c r="AB7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>45957</v>
+        <v>46030</v>
       </c>
       <c r="AC7" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>45958</v>
+        <v>46031</v>
       </c>
       <c r="AD7" s="19">
         <f ca="1">AC7+1</f>
-        <v>45959</v>
+        <v>46032</v>
       </c>
       <c r="AE7" s="19">
         <f ca="1">AD7+1</f>
-        <v>45960</v>
+        <v>46033</v>
       </c>
       <c r="AF7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>45961</v>
+        <v>46034</v>
       </c>
       <c r="AG7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>45962</v>
+        <v>46035</v>
       </c>
       <c r="AH7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>45963</v>
+        <v>46036</v>
       </c>
       <c r="AI7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>45964</v>
+        <v>46037</v>
       </c>
       <c r="AJ7" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>45965</v>
+        <v>46038</v>
       </c>
       <c r="AK7" s="19">
         <f ca="1">AJ7+1</f>
-        <v>45966</v>
+        <v>46039</v>
       </c>
       <c r="AL7" s="19">
         <f ca="1">AK7+1</f>
-        <v>45967</v>
+        <v>46040</v>
       </c>
       <c r="AM7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>45968</v>
+        <v>46041</v>
       </c>
       <c r="AN7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>45969</v>
+        <v>46042</v>
       </c>
       <c r="AO7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>45970</v>
+        <v>46043</v>
       </c>
       <c r="AP7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>45971</v>
+        <v>46044</v>
       </c>
       <c r="AQ7" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>45972</v>
+        <v>46045</v>
       </c>
       <c r="AR7" s="19">
         <f ca="1">AQ7+1</f>
-        <v>45973</v>
+        <v>46046</v>
       </c>
       <c r="AS7" s="19">
         <f ca="1">AR7+1</f>
-        <v>45974</v>
+        <v>46047</v>
       </c>
       <c r="AT7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>45975</v>
+        <v>46048</v>
       </c>
       <c r="AU7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>45976</v>
+        <v>46049</v>
       </c>
       <c r="AV7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>45977</v>
+        <v>46050</v>
       </c>
       <c r="AW7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>45978</v>
+        <v>46051</v>
       </c>
       <c r="AX7" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>45979</v>
+        <v>46052</v>
       </c>
       <c r="AY7" s="19">
         <f ca="1">AX7+1</f>
-        <v>45980</v>
+        <v>46053</v>
       </c>
       <c r="AZ7" s="19">
         <f ca="1">AY7+1</f>
-        <v>45981</v>
+        <v>46054</v>
       </c>
       <c r="BA7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>45982</v>
+        <v>46055</v>
       </c>
       <c r="BB7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>45983</v>
+        <v>46056</v>
       </c>
       <c r="BC7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>45984</v>
+        <v>46057</v>
       </c>
       <c r="BD7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>45985</v>
+        <v>46058</v>
       </c>
       <c r="BE7" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>45986</v>
+        <v>46059</v>
       </c>
       <c r="BF7" s="19">
         <f ca="1">BE7+1</f>
-        <v>45987</v>
+        <v>46060</v>
       </c>
       <c r="BG7" s="19">
         <f ca="1">BF7+1</f>
-        <v>45988</v>
+        <v>46061</v>
       </c>
       <c r="BH7" s="19">
         <f t="shared" ref="BH7:BL7" ca="1" si="1">BG7+1</f>
-        <v>45989</v>
+        <v>46062</v>
       </c>
       <c r="BI7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>45990</v>
+        <v>46063</v>
       </c>
       <c r="BJ7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>45991</v>
+        <v>46064</v>
       </c>
       <c r="BK7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>45992</v>
+        <v>46065</v>
       </c>
       <c r="BL7" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>45993</v>
+        <v>46066</v>
       </c>
       <c r="BM7" s="19">
         <f ca="1">BL7+1</f>
-        <v>45994</v>
+        <v>46067</v>
       </c>
       <c r="BN7" s="19">
         <f ca="1">BM7+1</f>
-        <v>45995</v>
+        <v>46068</v>
       </c>
       <c r="BO7" s="19">
         <f t="shared" ref="BO7:BS7" ca="1" si="2">BN7+1</f>
-        <v>45996</v>
+        <v>46069</v>
       </c>
       <c r="BP7" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>45997</v>
+        <v>46070</v>
       </c>
       <c r="BQ7" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>45998</v>
+        <v>46071</v>
       </c>
       <c r="BR7" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>45999</v>
+        <v>46072</v>
       </c>
       <c r="BS7" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>46000</v>
+        <v>46073</v>
       </c>
     </row>
     <row r="8" spans="1:78" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="82" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="86">
+      <c r="E8" s="85">
         <v>1337</v>
       </c>
       <c r="G8" s="7"/>
@@ -3318,7 +3315,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="46"/>
+      <c r="N8" s="45"/>
       <c r="O8" s="10"/>
       <c r="P8" s="21"/>
       <c r="Q8" s="22"/>
@@ -3378,15 +3375,15 @@
       <c r="BS8" s="23"/>
     </row>
     <row r="9" spans="1:78" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="82" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="87">
+      <c r="E9" s="86">
         <f ca="1">TODAY()</f>
-        <v>45944</v>
+        <v>46017</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
@@ -3395,7 +3392,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="46"/>
+      <c r="N9" s="45"/>
       <c r="O9" s="8"/>
       <c r="P9" s="38"/>
       <c r="Q9" s="38"/>
@@ -3462,20 +3459,20 @@
       <c r="BZ9" s="36"/>
     </row>
     <row r="10" spans="1:78" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
       <c r="O10" s="8"/>
       <c r="P10" s="38"/>
       <c r="Q10" s="38"/>
@@ -3542,303 +3539,303 @@
       <c r="BZ10" s="36"/>
     </row>
     <row r="11" spans="1:78" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="52" t="s">
+      <c r="G11" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="52" t="s">
+      <c r="H11" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="52" t="s">
+      <c r="I11" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="52" t="s">
+      <c r="J11" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="52" t="s">
+      <c r="K11" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="52" t="s">
+      <c r="L11" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="52" t="s">
+      <c r="M11" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="52" t="s">
+      <c r="N11" s="51" t="s">
         <v>27</v>
       </c>
       <c r="O11" s="12"/>
       <c r="P11" s="37" t="str">
         <f t="shared" ref="P11:BS11" ca="1" si="3">LEFT(TEXT(P7,"ddd"),1)</f>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="Q11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>d</v>
       </c>
       <c r="R11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>l</v>
       </c>
       <c r="S11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="T11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="U11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="V11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="W11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="X11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>d</v>
       </c>
       <c r="Y11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>l</v>
       </c>
       <c r="Z11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="AA11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="AB11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="AC11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="AD11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="AE11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>d</v>
       </c>
       <c r="AF11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>l</v>
       </c>
       <c r="AG11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="AH11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="AI11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="AJ11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="AK11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="AL11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>d</v>
       </c>
       <c r="AM11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>l</v>
       </c>
       <c r="AN11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="AO11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="AP11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="AQ11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="AR11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="AS11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>d</v>
       </c>
       <c r="AT11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>l</v>
       </c>
       <c r="AU11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="AV11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="AW11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="AX11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="AY11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="AZ11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>d</v>
       </c>
       <c r="BA11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>l</v>
       </c>
       <c r="BB11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="BC11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="BD11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="BE11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="BF11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="BG11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>d</v>
       </c>
       <c r="BH11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>l</v>
       </c>
       <c r="BI11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="BJ11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="BK11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="BL11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="BM11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="BN11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>d</v>
       </c>
       <c r="BO11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>l</v>
       </c>
       <c r="BP11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="BQ11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="BR11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="BS11" s="17" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
     </row>
     <row r="12" spans="1:78" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="54">
+      <c r="B12" s="53">
         <f>SUM(B13:B32)</f>
         <v>263642930.00000006</v>
       </c>
-      <c r="C12" s="54">
+      <c r="C12" s="53">
         <f>SUM(C13:C32)</f>
         <v>333095579.12</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="54">
         <f>SUM(D13:D32)</f>
         <v>254746.26333333339</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="54">
         <f>SUM(E13:E32)</f>
         <v>261147.0242265386</v>
       </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
       <c r="O12" s="4"/>
       <c r="P12" s="3" t="str">
         <f t="shared" ref="P12:Y17" ca="1" si="4">IF(AND($F12="Objetivo",P$7&gt;=$J12,P$7&lt;=$J12+$L12-1),2,IF(AND($F12="Hito",P$7&gt;=$J12,P$7&lt;=$J12+$L12-1),1,""))</f>
@@ -4066,47 +4063,47 @@
       </c>
     </row>
     <row r="13" spans="1:78" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="90">
+      <c r="B13" s="89">
         <v>17500000</v>
       </c>
-      <c r="C13" s="105">
+      <c r="C13" s="103">
         <v>22882213.690000001</v>
       </c>
-      <c r="D13" s="104">
+      <c r="D13" s="102">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/1000</f>
         <v>17500</v>
       </c>
-      <c r="E13" s="104">
+      <c r="E13" s="102">
         <f>Hitos4352[[#This Row],[A DEVOLVER]]/$E$8</f>
         <v>17114.595130890055</v>
       </c>
-      <c r="F13" s="91" t="s">
+      <c r="F13" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="91" t="s">
+      <c r="G13" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="92">
+      <c r="H13" s="91">
         <v>0.3</v>
       </c>
-      <c r="I13" s="93">
+      <c r="I13" s="92">
         <v>0.01</v>
       </c>
-      <c r="J13" s="94">
+      <c r="J13" s="93">
         <v>45567</v>
       </c>
-      <c r="K13" s="98">
+      <c r="K13" s="97">
         <v>45749</v>
       </c>
-      <c r="L13" s="95">
+      <c r="L13" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>182</v>
       </c>
-      <c r="M13" s="99"/>
-      <c r="N13" s="95" t="s">
+      <c r="M13" s="98"/>
+      <c r="N13" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O13" s="4"/>
@@ -4336,49 +4333,49 @@
       </c>
     </row>
     <row r="14" spans="1:78" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="103" t="s">
+      <c r="A14" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="90">
+      <c r="B14" s="89">
         <v>24550000</v>
       </c>
-      <c r="C14" s="105">
+      <c r="C14" s="103">
         <v>35003614</v>
       </c>
-      <c r="D14" s="104">
+      <c r="D14" s="102">
         <v>25000</v>
       </c>
-      <c r="E14" s="104">
+      <c r="E14" s="102">
         <f>Hitos4352[[#This Row],[A DEVOLVER]]/$E$8</f>
         <v>26180.713537771131</v>
       </c>
-      <c r="F14" s="91" t="s">
+      <c r="F14" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="91" t="s">
+      <c r="G14" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="92">
+      <c r="H14" s="91">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I14" s="93">
+      <c r="I14" s="92">
         <v>0.01</v>
       </c>
-      <c r="J14" s="94">
+      <c r="J14" s="93">
         <v>45589</v>
       </c>
-      <c r="K14" s="98">
+      <c r="K14" s="97">
         <v>45859</v>
       </c>
-      <c r="L14" s="95">
+      <c r="L14" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>270</v>
       </c>
-      <c r="M14" s="99">
+      <c r="M14" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-E$9</f>
-        <v>-85</v>
-      </c>
-      <c r="N14" s="95" t="s">
+        <v>-158</v>
+      </c>
+      <c r="N14" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O14" s="4"/>
@@ -4608,49 +4605,49 @@
       </c>
     </row>
     <row r="15" spans="1:78" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="103" t="s">
+      <c r="A15" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="90">
+      <c r="B15" s="89">
         <v>19730000</v>
       </c>
-      <c r="C15" s="105">
+      <c r="C15" s="103">
         <v>24634929.239999998</v>
       </c>
-      <c r="D15" s="104">
+      <c r="D15" s="102">
         <v>20000</v>
       </c>
-      <c r="E15" s="104">
+      <c r="E15" s="102">
         <f>Hitos4352[[#This Row],[A DEVOLVER]]/$E$8</f>
         <v>18425.526731488404</v>
       </c>
-      <c r="F15" s="91" t="s">
+      <c r="F15" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="91" t="s">
+      <c r="G15" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="92">
+      <c r="H15" s="91">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I15" s="93">
+      <c r="I15" s="92">
         <v>0.01</v>
       </c>
-      <c r="J15" s="94">
+      <c r="J15" s="93">
         <v>45597</v>
       </c>
-      <c r="K15" s="98">
+      <c r="K15" s="97">
         <v>45807</v>
       </c>
-      <c r="L15" s="95">
+      <c r="L15" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>210</v>
       </c>
-      <c r="M15" s="99">
+      <c r="M15" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-E$9</f>
-        <v>-137</v>
-      </c>
-      <c r="N15" s="95" t="s">
+        <v>-210</v>
+      </c>
+      <c r="N15" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O15" s="4"/>
@@ -4880,50 +4877,50 @@
       </c>
     </row>
     <row r="16" spans="1:78" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="103" t="s">
+      <c r="A16" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="90">
+      <c r="B16" s="89">
         <v>48500000</v>
       </c>
-      <c r="C16" s="105">
+      <c r="C16" s="103">
         <v>66683061.909999996</v>
       </c>
-      <c r="D16" s="104">
+      <c r="D16" s="102">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/1000</f>
         <v>48500</v>
       </c>
-      <c r="E16" s="104">
+      <c r="E16" s="102">
         <f>Hitos4352[[#This Row],[A DEVOLVER]]/$E$8</f>
         <v>49875.139798055345</v>
       </c>
-      <c r="F16" s="91" t="s">
+      <c r="F16" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="91" t="s">
+      <c r="G16" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="92">
+      <c r="H16" s="91">
         <v>0.41</v>
       </c>
-      <c r="I16" s="93">
+      <c r="I16" s="92">
         <v>0.01</v>
       </c>
-      <c r="J16" s="94">
+      <c r="J16" s="93">
         <v>45600</v>
       </c>
-      <c r="K16" s="98">
+      <c r="K16" s="97">
         <v>45898</v>
       </c>
-      <c r="L16" s="95">
+      <c r="L16" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>298</v>
       </c>
-      <c r="M16" s="99">
+      <c r="M16" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-E$9</f>
-        <v>-46</v>
-      </c>
-      <c r="N16" s="95" t="s">
+        <v>-119</v>
+      </c>
+      <c r="N16" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O16" s="4"/>
@@ -5153,51 +5150,51 @@
       </c>
     </row>
     <row r="17" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="102" t="s">
+      <c r="A17" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="89">
         <v>19900000</v>
       </c>
-      <c r="C17" s="101">
+      <c r="C17" s="103">
         <v>25870000</v>
       </c>
-      <c r="D17" s="100">
+      <c r="D17" s="102">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/1000</f>
         <v>19900</v>
       </c>
-      <c r="E17" s="100">
+      <c r="E17" s="102">
         <f>Hitos4352[[#This Row],[A DEVOLVER]]/$E$8</f>
         <v>19349.289454001497</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="27" t="s">
+      <c r="G17" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="91">
         <v>0.3</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="92">
         <v>0.01</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="93">
         <v>45581</v>
       </c>
-      <c r="K17" s="40">
+      <c r="K17" s="97">
         <v>45931</v>
       </c>
-      <c r="L17" s="30">
+      <c r="L17" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>350</v>
       </c>
-      <c r="M17" s="67">
+      <c r="M17" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-E$9</f>
-        <v>-13</v>
-      </c>
-      <c r="N17" s="30" t="s">
-        <v>36</v>
+        <v>-86</v>
+      </c>
+      <c r="N17" s="94" t="s">
+        <v>31</v>
       </c>
       <c r="O17" s="4"/>
       <c r="P17" s="3" t="str">
@@ -5426,50 +5423,50 @@
       </c>
     </row>
     <row r="18" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="103" t="s">
+      <c r="A18" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="90">
+      <c r="B18" s="89">
         <v>30000000</v>
       </c>
-      <c r="C18" s="105">
+      <c r="C18" s="103">
         <v>39491465.219999999</v>
       </c>
-      <c r="D18" s="104">
+      <c r="D18" s="102">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/1000</f>
         <v>30000</v>
       </c>
-      <c r="E18" s="104">
+      <c r="E18" s="102">
         <f>Hitos4352[[#This Row],[A DEVOLVER]]/1316.1</f>
         <v>30006.43204923638</v>
       </c>
-      <c r="F18" s="91" t="s">
+      <c r="F18" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="91" t="s">
+      <c r="G18" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="92">
+      <c r="H18" s="91">
         <v>4.3499999999999997E-2</v>
       </c>
-      <c r="I18" s="93">
+      <c r="I18" s="92">
         <v>0.01</v>
       </c>
-      <c r="J18" s="94">
+      <c r="J18" s="93">
         <v>45644</v>
       </c>
-      <c r="K18" s="98">
+      <c r="K18" s="97">
         <v>45825</v>
       </c>
-      <c r="L18" s="95">
+      <c r="L18" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>181</v>
       </c>
-      <c r="M18" s="99">
+      <c r="M18" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-E$9</f>
-        <v>-119</v>
-      </c>
-      <c r="N18" s="95" t="s">
+        <v>-192</v>
+      </c>
+      <c r="N18" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O18" s="4"/>
@@ -5531,51 +5528,51 @@
       <c r="BS18" s="3"/>
     </row>
     <row r="19" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="89" t="s">
+      <c r="A19" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="90">
+      <c r="B19" s="89">
         <v>25762930</v>
       </c>
-      <c r="C19" s="105">
+      <c r="C19" s="103">
         <v>33934206.200000003</v>
       </c>
-      <c r="D19" s="104">
+      <c r="D19" s="102">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/1000</f>
         <v>25762.93</v>
       </c>
-      <c r="E19" s="104">
+      <c r="E19" s="102">
         <f>Hitos4352[[#This Row],[A DEVOLVER]]/1305</f>
         <v>26003.223141762453</v>
       </c>
-      <c r="F19" s="91" t="s">
+      <c r="F19" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="91" t="s">
+      <c r="G19" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="92">
+      <c r="H19" s="91">
         <v>0.05</v>
       </c>
-      <c r="I19" s="93">
+      <c r="I19" s="92">
         <v>0.01</v>
       </c>
-      <c r="J19" s="94">
+      <c r="J19" s="93">
         <v>45679</v>
       </c>
-      <c r="K19" s="98">
+      <c r="K19" s="97">
         <v>45889</v>
       </c>
-      <c r="L19" s="95">
+      <c r="L19" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>210</v>
       </c>
-      <c r="M19" s="99">
+      <c r="M19" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-E$9</f>
-        <v>-55</v>
-      </c>
-      <c r="N19" s="95" t="s">
-        <v>36</v>
+        <v>-128</v>
+      </c>
+      <c r="N19" s="94" t="s">
+        <v>31</v>
       </c>
       <c r="O19" s="4"/>
       <c r="P19" s="3"/>
@@ -5636,51 +5633,51 @@
       <c r="BS19" s="3"/>
     </row>
     <row r="20" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="90">
+      <c r="B20" s="89">
         <f>20000000/6</f>
         <v>3333333.3333333335</v>
       </c>
-      <c r="C20" s="105">
+      <c r="C20" s="103">
         <v>3713385</v>
       </c>
-      <c r="D20" s="104">
+      <c r="D20" s="102">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/1000</f>
         <v>3333.3333333333335</v>
       </c>
-      <c r="E20" s="104">
+      <c r="E20" s="102">
         <f>Hitos4352[[#This Row],[A DEVOLVER]]/1000</f>
         <v>3713.3850000000002</v>
       </c>
-      <c r="F20" s="91" t="s">
+      <c r="F20" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="91" t="s">
+      <c r="G20" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="92">
+      <c r="H20" s="91">
         <v>0.38490000000000002</v>
       </c>
-      <c r="I20" s="93">
+      <c r="I20" s="92">
         <v>0.01</v>
       </c>
-      <c r="J20" s="94">
+      <c r="J20" s="93">
         <v>45748</v>
       </c>
-      <c r="K20" s="98">
+      <c r="K20" s="97">
         <v>45772</v>
       </c>
-      <c r="L20" s="95">
+      <c r="L20" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>24</v>
       </c>
-      <c r="M20" s="99">
+      <c r="M20" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-E$9</f>
-        <v>-172</v>
-      </c>
-      <c r="N20" s="95" t="s">
+        <v>-245</v>
+      </c>
+      <c r="N20" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O20" s="4"/>
@@ -5742,50 +5739,50 @@
       <c r="BS20" s="3"/>
     </row>
     <row r="21" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="90">
+      <c r="B21" s="89">
         <v>3333333.3333333335</v>
       </c>
-      <c r="C21" s="105">
+      <c r="C21" s="103">
         <v>3722019</v>
       </c>
-      <c r="D21" s="104">
+      <c r="D21" s="102">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/1000</f>
         <v>3333.3333333333335</v>
       </c>
-      <c r="E21" s="104">
+      <c r="E21" s="102">
         <f>Hitos4352[[#This Row],[A DEVOLVER]]/1000</f>
         <v>3722.0189999999998</v>
       </c>
-      <c r="F21" s="91" t="s">
+      <c r="F21" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="91" t="s">
+      <c r="G21" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="92">
+      <c r="H21" s="91">
         <v>0.38490000000000002</v>
       </c>
-      <c r="I21" s="93">
+      <c r="I21" s="92">
         <v>0.01</v>
       </c>
-      <c r="J21" s="94">
+      <c r="J21" s="93">
         <v>45748</v>
       </c>
-      <c r="K21" s="98">
+      <c r="K21" s="97">
         <v>45803</v>
       </c>
-      <c r="L21" s="95">
+      <c r="L21" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>55</v>
       </c>
-      <c r="M21" s="99">
+      <c r="M21" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-E$9</f>
-        <v>-141</v>
-      </c>
-      <c r="N21" s="95" t="s">
+        <v>-214</v>
+      </c>
+      <c r="N21" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O21" s="4"/>
@@ -5847,50 +5844,50 @@
       <c r="BS21" s="3"/>
     </row>
     <row r="22" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="89" t="s">
+      <c r="A22" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="90">
+      <c r="B22" s="89">
         <v>3333333.3333333335</v>
       </c>
-      <c r="C22" s="105">
+      <c r="C22" s="103">
         <v>3695805</v>
       </c>
-      <c r="D22" s="104">
+      <c r="D22" s="102">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/1000</f>
         <v>3333.3333333333335</v>
       </c>
-      <c r="E22" s="104">
+      <c r="E22" s="102">
         <f>Hitos4352[[#This Row],[A DEVOLVER]]/1000</f>
         <v>3695.8049999999998</v>
       </c>
-      <c r="F22" s="91" t="s">
+      <c r="F22" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="91" t="s">
+      <c r="G22" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="92">
+      <c r="H22" s="91">
         <v>0.38490000000000002</v>
       </c>
-      <c r="I22" s="93">
+      <c r="I22" s="92">
         <v>0.01</v>
       </c>
-      <c r="J22" s="94">
+      <c r="J22" s="93">
         <v>45748</v>
       </c>
-      <c r="K22" s="98">
+      <c r="K22" s="97">
         <v>45833</v>
       </c>
-      <c r="L22" s="95">
+      <c r="L22" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>85</v>
       </c>
-      <c r="M22" s="99">
+      <c r="M22" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-E$9</f>
-        <v>-111</v>
-      </c>
-      <c r="N22" s="95" t="s">
+        <v>-184</v>
+      </c>
+      <c r="N22" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O22" s="4"/>
@@ -5952,50 +5949,50 @@
       <c r="BS22" s="3"/>
     </row>
     <row r="23" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="89" t="s">
+      <c r="A23" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="90">
+      <c r="B23" s="89">
         <v>3333333.3333333335</v>
       </c>
-      <c r="C23" s="105">
+      <c r="C23" s="103">
         <v>3686448</v>
       </c>
-      <c r="D23" s="104">
+      <c r="D23" s="102">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/1000</f>
         <v>3333.3333333333335</v>
       </c>
-      <c r="E23" s="104">
+      <c r="E23" s="102">
         <f>Hitos4352[[#This Row],[A DEVOLVER]]/1000</f>
         <v>3686.4479999999999</v>
       </c>
-      <c r="F23" s="91" t="s">
+      <c r="F23" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="91" t="s">
+      <c r="G23" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="92">
+      <c r="H23" s="91">
         <v>0.38490000000000002</v>
       </c>
-      <c r="I23" s="93">
+      <c r="I23" s="92">
         <v>0.01</v>
       </c>
-      <c r="J23" s="94">
+      <c r="J23" s="93">
         <v>45748</v>
       </c>
-      <c r="K23" s="98">
+      <c r="K23" s="97">
         <v>45863</v>
       </c>
-      <c r="L23" s="95">
+      <c r="L23" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>115</v>
       </c>
-      <c r="M23" s="99">
+      <c r="M23" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-E$9</f>
-        <v>-81</v>
-      </c>
-      <c r="N23" s="95" t="s">
+        <v>-154</v>
+      </c>
+      <c r="N23" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O23" s="4"/>
@@ -6057,50 +6054,50 @@
       <c r="BS23" s="3"/>
     </row>
     <row r="24" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="89" t="s">
+      <c r="A24" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="90">
+      <c r="B24" s="89">
         <v>3333333.3333333335</v>
       </c>
-      <c r="C24" s="105">
+      <c r="C24" s="103">
         <v>3683954</v>
       </c>
-      <c r="D24" s="104">
+      <c r="D24" s="102">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/1000</f>
         <v>3333.3333333333335</v>
       </c>
-      <c r="E24" s="104">
+      <c r="E24" s="102">
         <f>Hitos4352[[#This Row],[A DEVOLVER]]/1000</f>
         <v>3683.9540000000002</v>
       </c>
-      <c r="F24" s="91" t="s">
+      <c r="F24" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="91" t="s">
+      <c r="G24" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="92">
+      <c r="H24" s="91">
         <v>0.38490000000000002</v>
       </c>
-      <c r="I24" s="93">
+      <c r="I24" s="92">
         <v>0.01</v>
       </c>
-      <c r="J24" s="94">
+      <c r="J24" s="93">
         <v>45748</v>
       </c>
-      <c r="K24" s="98">
+      <c r="K24" s="97">
         <v>45894</v>
       </c>
-      <c r="L24" s="95">
+      <c r="L24" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>146</v>
       </c>
-      <c r="M24" s="99">
+      <c r="M24" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-E$9</f>
-        <v>-50</v>
-      </c>
-      <c r="N24" s="95" t="s">
+        <v>-123</v>
+      </c>
+      <c r="N24" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O24" s="4"/>
@@ -6162,50 +6159,50 @@
       <c r="BS24" s="3"/>
     </row>
     <row r="25" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="89" t="s">
+      <c r="A25" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="90">
+      <c r="B25" s="89">
         <v>3333333.3333333335</v>
       </c>
-      <c r="C25" s="105">
+      <c r="C25" s="103">
         <v>3670571</v>
       </c>
-      <c r="D25" s="104">
+      <c r="D25" s="102">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/1000</f>
         <v>3333.3333333333335</v>
       </c>
-      <c r="E25" s="104">
+      <c r="E25" s="102">
         <f>Hitos4352[[#This Row],[A DEVOLVER]]/1000</f>
         <v>3670.5709999999999</v>
       </c>
-      <c r="F25" s="91" t="s">
+      <c r="F25" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="91" t="s">
+      <c r="G25" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="92">
+      <c r="H25" s="91">
         <v>0.38490000000000002</v>
       </c>
-      <c r="I25" s="93">
+      <c r="I25" s="92">
         <v>0.01</v>
       </c>
-      <c r="J25" s="94">
+      <c r="J25" s="93">
         <v>45748</v>
       </c>
-      <c r="K25" s="98">
+      <c r="K25" s="97">
         <v>45925</v>
       </c>
-      <c r="L25" s="95">
+      <c r="L25" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>177</v>
       </c>
-      <c r="M25" s="99">
+      <c r="M25" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-E$9</f>
-        <v>-19</v>
-      </c>
-      <c r="N25" s="95" t="s">
+        <v>-92</v>
+      </c>
+      <c r="N25" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O25" s="4"/>
@@ -6267,48 +6264,48 @@
       <c r="BS25" s="3"/>
     </row>
     <row r="26" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="89" t="s">
+      <c r="A26" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="90">
+      <c r="B26" s="89">
         <v>10000000</v>
       </c>
-      <c r="C26" s="105">
+      <c r="C26" s="103">
         <v>12699375.35</v>
       </c>
-      <c r="D26" s="104">
+      <c r="D26" s="102">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/1200</f>
         <v>8333.3333333333339</v>
       </c>
-      <c r="E26" s="104">
+      <c r="E26" s="102">
         <f>Hitos4352[[#This Row],[A DEVOLVER]]/1200</f>
         <v>10582.812791666667</v>
       </c>
-      <c r="F26" s="91" t="s">
+      <c r="F26" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="91" t="s">
+      <c r="G26" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="92">
+      <c r="H26" s="91">
         <v>0.47</v>
       </c>
-      <c r="I26" s="93"/>
-      <c r="J26" s="94">
+      <c r="I26" s="92"/>
+      <c r="J26" s="93">
         <v>45755</v>
       </c>
-      <c r="K26" s="98">
+      <c r="K26" s="97">
         <v>45938</v>
       </c>
-      <c r="L26" s="95">
+      <c r="L26" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>183</v>
       </c>
-      <c r="M26" s="99">
+      <c r="M26" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-E$9</f>
-        <v>-6</v>
-      </c>
-      <c r="N26" s="95" t="s">
+        <v>-79</v>
+      </c>
+      <c r="N26" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O26" s="4"/>
@@ -6370,48 +6367,48 @@
       <c r="BS26" s="3"/>
     </row>
     <row r="27" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="141" t="s">
+      <c r="A27" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="142">
+      <c r="B27" s="132">
         <v>7500000</v>
       </c>
-      <c r="C27" s="143">
+      <c r="C27" s="133">
         <v>9524531.5099999998</v>
       </c>
-      <c r="D27" s="144">
+      <c r="D27" s="134">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/1200</f>
         <v>6250</v>
       </c>
-      <c r="E27" s="144">
+      <c r="E27" s="134">
         <f>Hitos4352[[#This Row],[A DEVOLVER]]/1200</f>
         <v>7937.1095916666663</v>
       </c>
-      <c r="F27" s="145" t="s">
+      <c r="F27" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="145" t="s">
+      <c r="G27" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="H27" s="146">
+      <c r="H27" s="136">
         <v>0.47</v>
       </c>
-      <c r="I27" s="147"/>
-      <c r="J27" s="148">
+      <c r="I27" s="137"/>
+      <c r="J27" s="138">
         <v>45757</v>
       </c>
-      <c r="K27" s="149">
+      <c r="K27" s="139">
         <v>45940</v>
       </c>
-      <c r="L27" s="150">
+      <c r="L27" s="140">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>183</v>
       </c>
-      <c r="M27" s="151">
+      <c r="M27" s="141">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-E$9</f>
-        <v>-4</v>
-      </c>
-      <c r="N27" s="150" t="s">
+        <v>-77</v>
+      </c>
+      <c r="N27" s="140" t="s">
         <v>31</v>
       </c>
       <c r="O27" s="4"/>
@@ -6473,48 +6470,48 @@
       <c r="BS27" s="3"/>
     </row>
     <row r="28" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="89" t="s">
+      <c r="A28" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="90">
+      <c r="B28" s="89">
         <v>6000000</v>
       </c>
-      <c r="C28" s="105">
+      <c r="C28" s="103">
         <v>6000000</v>
       </c>
-      <c r="D28" s="104">
+      <c r="D28" s="102">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/1200</f>
         <v>5000</v>
       </c>
-      <c r="E28" s="104">
+      <c r="E28" s="102">
         <f>Hitos4352[[#This Row],[A DEVOLVER]]/1200</f>
         <v>5000</v>
       </c>
-      <c r="F28" s="91" t="s">
+      <c r="F28" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="G28" s="91" t="s">
+      <c r="G28" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="92">
+      <c r="H28" s="91">
         <v>0.44879999999999998</v>
       </c>
-      <c r="I28" s="93"/>
-      <c r="J28" s="94">
+      <c r="I28" s="92"/>
+      <c r="J28" s="93">
         <v>45785</v>
       </c>
-      <c r="K28" s="98">
+      <c r="K28" s="97">
         <v>45814</v>
       </c>
-      <c r="L28" s="95">
+      <c r="L28" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>29</v>
       </c>
-      <c r="M28" s="99">
+      <c r="M28" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-E$9</f>
-        <v>-130</v>
-      </c>
-      <c r="N28" s="95" t="s">
+        <v>-203</v>
+      </c>
+      <c r="N28" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O28" s="4"/>
@@ -6576,48 +6573,48 @@
       <c r="BS28" s="3"/>
     </row>
     <row r="29" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="89" t="s">
+      <c r="A29" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="90">
+      <c r="B29" s="89">
         <v>14000000</v>
       </c>
-      <c r="C29" s="105">
+      <c r="C29" s="103">
         <v>14000000</v>
       </c>
-      <c r="D29" s="104">
+      <c r="D29" s="102">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/1200</f>
         <v>11666.666666666666</v>
       </c>
-      <c r="E29" s="104">
+      <c r="E29" s="102">
         <f>Hitos4352[[#This Row],[A DEVOLVER]]/1200</f>
         <v>11666.666666666666</v>
       </c>
-      <c r="F29" s="91" t="s">
+      <c r="F29" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="G29" s="91" t="s">
+      <c r="G29" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="92">
+      <c r="H29" s="91">
         <v>0.43730000000000002</v>
       </c>
-      <c r="I29" s="93"/>
-      <c r="J29" s="94">
+      <c r="I29" s="92"/>
+      <c r="J29" s="93">
         <v>45698</v>
       </c>
-      <c r="K29" s="98">
+      <c r="K29" s="97">
         <v>45791</v>
       </c>
-      <c r="L29" s="95">
+      <c r="L29" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>93</v>
       </c>
-      <c r="M29" s="99">
+      <c r="M29" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-E$9</f>
-        <v>-153</v>
-      </c>
-      <c r="N29" s="95" t="s">
+        <v>-226</v>
+      </c>
+      <c r="N29" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O29" s="4"/>
@@ -6679,48 +6676,48 @@
       <c r="BS29" s="3"/>
     </row>
     <row r="30" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="89" t="s">
+      <c r="A30" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="90">
+      <c r="B30" s="89">
         <v>7200000</v>
       </c>
-      <c r="C30" s="105">
+      <c r="C30" s="103">
         <v>7200000</v>
       </c>
-      <c r="D30" s="104">
+      <c r="D30" s="102">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/1200</f>
         <v>6000</v>
       </c>
-      <c r="E30" s="104">
+      <c r="E30" s="102">
         <f>Hitos4352[[#This Row],[A DEVOLVER]]/1200</f>
         <v>6000</v>
       </c>
-      <c r="F30" s="91" t="s">
+      <c r="F30" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="G30" s="91" t="s">
+      <c r="G30" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="H30" s="92">
+      <c r="H30" s="91">
         <v>0.53</v>
       </c>
-      <c r="I30" s="93"/>
-      <c r="J30" s="94">
+      <c r="I30" s="92"/>
+      <c r="J30" s="93">
         <v>45713</v>
       </c>
-      <c r="K30" s="98">
+      <c r="K30" s="97">
         <v>45929</v>
       </c>
-      <c r="L30" s="95">
+      <c r="L30" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>216</v>
       </c>
-      <c r="M30" s="99">
+      <c r="M30" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-E$9</f>
-        <v>-15</v>
-      </c>
-      <c r="N30" s="95" t="s">
+        <v>-88</v>
+      </c>
+      <c r="N30" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O30" s="4"/>
@@ -6782,48 +6779,48 @@
       <c r="BS30" s="3"/>
     </row>
     <row r="31" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="89" t="s">
+      <c r="A31" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="90">
+      <c r="B31" s="89">
         <v>10000000</v>
       </c>
-      <c r="C31" s="105">
+      <c r="C31" s="103">
         <v>10000000</v>
       </c>
-      <c r="D31" s="104">
+      <c r="D31" s="102">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/1200</f>
         <v>8333.3333333333339</v>
       </c>
-      <c r="E31" s="104">
+      <c r="E31" s="102">
         <f>Hitos4352[[#This Row],[A DEVOLVER]]/1200</f>
         <v>8333.3333333333339</v>
       </c>
-      <c r="F31" s="91" t="s">
+      <c r="F31" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="91" t="s">
+      <c r="G31" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="92">
+      <c r="H31" s="91">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I31" s="93"/>
-      <c r="J31" s="94">
+      <c r="I31" s="92"/>
+      <c r="J31" s="93">
         <v>45700</v>
       </c>
-      <c r="K31" s="98">
+      <c r="K31" s="97">
         <v>45796</v>
       </c>
-      <c r="L31" s="95">
+      <c r="L31" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>96</v>
       </c>
-      <c r="M31" s="99">
+      <c r="M31" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-E$9</f>
-        <v>-148</v>
-      </c>
-      <c r="N31" s="95" t="s">
+        <v>-221</v>
+      </c>
+      <c r="N31" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O31" s="4"/>
@@ -6885,40 +6882,40 @@
       <c r="BS31" s="3"/>
     </row>
     <row r="32" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="89" t="s">
+      <c r="A32" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="90">
+      <c r="B32" s="89">
         <v>3000000</v>
       </c>
-      <c r="C32" s="105">
+      <c r="C32" s="103">
         <v>3000000</v>
       </c>
-      <c r="D32" s="104">
+      <c r="D32" s="102">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/1200</f>
         <v>2500</v>
       </c>
-      <c r="E32" s="104">
+      <c r="E32" s="102">
         <f>Hitos4352[[#This Row],[A DEVOLVER]]/1200</f>
         <v>2500</v>
       </c>
-      <c r="F32" s="91" t="s">
+      <c r="F32" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="G32" s="91" t="s">
+      <c r="G32" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="H32" s="92">
+      <c r="H32" s="91">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I32" s="93"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="98">
+      <c r="I32" s="92"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="97">
         <v>45838</v>
       </c>
-      <c r="L32" s="95"/>
-      <c r="M32" s="99"/>
-      <c r="N32" s="95" t="s">
+      <c r="L32" s="94"/>
+      <c r="M32" s="98"/>
+      <c r="N32" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O32" s="4"/>
@@ -6980,34 +6977,34 @@
       <c r="BS32" s="3"/>
     </row>
     <row r="33" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="61" t="s">
+      <c r="A33" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="96">
+      <c r="B33" s="95">
         <f>SUBTOTAL(109,B34:B46)</f>
         <v>342809150.81775004</v>
       </c>
-      <c r="C33" s="96">
+      <c r="C33" s="95">
         <f>SUBTOTAL(109,C34:C46)</f>
         <v>0</v>
       </c>
-      <c r="D33" s="97">
+      <c r="D33" s="96">
         <f>SUBTOTAL(109,D34:D46)</f>
         <v>256401.75827804784</v>
       </c>
-      <c r="E33" s="97">
+      <c r="E33" s="96">
         <f>SUBTOTAL(109,E34:E46)</f>
         <v>0</v>
       </c>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="65"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="64"/>
       <c r="O33" s="4"/>
       <c r="P33" s="34" t="str">
         <f t="shared" ref="P33:AU33" ca="1" si="10">IF(AND($F33="Objetivo",P$7&gt;=$J33,P$7&lt;=$J33+$L33-1),2,IF(AND($F33="Hito",P$7&gt;=$J33,P$7&lt;=$J33+$L33-1),1,""))</f>
@@ -7235,33 +7232,33 @@
       </c>
     </row>
     <row r="34" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="123" t="s">
+      <c r="A34" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="124">
+      <c r="B34" s="122">
         <v>43650000</v>
       </c>
-      <c r="C34" s="125"/>
-      <c r="D34" s="126">
+      <c r="C34" s="123"/>
+      <c r="D34" s="124">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/$E$8</f>
         <v>32647.718773373224</v>
       </c>
-      <c r="E34" s="125"/>
-      <c r="F34" s="127"/>
-      <c r="G34" s="127" t="s">
+      <c r="E34" s="123"/>
+      <c r="F34" s="125"/>
+      <c r="G34" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="H34" s="128">
+      <c r="H34" s="126">
         <v>0</v>
       </c>
-      <c r="I34" s="129">
+      <c r="I34" s="127">
         <v>0</v>
       </c>
-      <c r="J34" s="130"/>
-      <c r="K34" s="130"/>
-      <c r="L34" s="131"/>
-      <c r="M34" s="132"/>
-      <c r="N34" s="131" t="s">
+      <c r="J34" s="128"/>
+      <c r="K34" s="128"/>
+      <c r="L34" s="129"/>
+      <c r="M34" s="130"/>
+      <c r="N34" s="129" t="s">
         <v>31</v>
       </c>
       <c r="O34" s="4"/>
@@ -7323,31 +7320,31 @@
       <c r="BS34" s="3"/>
     </row>
     <row r="35" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="123" t="s">
+      <c r="A35" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="124">
+      <c r="B35" s="122">
         <v>50400000</v>
       </c>
-      <c r="C35" s="125"/>
-      <c r="D35" s="126">
+      <c r="C35" s="123"/>
+      <c r="D35" s="124">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/$E$8</f>
         <v>37696.33507853403</v>
       </c>
-      <c r="E35" s="125"/>
-      <c r="F35" s="127"/>
-      <c r="G35" s="127"/>
-      <c r="H35" s="128">
+      <c r="E35" s="123"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="126">
         <v>0</v>
       </c>
-      <c r="I35" s="129">
+      <c r="I35" s="127">
         <v>0</v>
       </c>
-      <c r="J35" s="130"/>
-      <c r="K35" s="130"/>
-      <c r="L35" s="131"/>
-      <c r="M35" s="132"/>
-      <c r="N35" s="131" t="s">
+      <c r="J35" s="128"/>
+      <c r="K35" s="128"/>
+      <c r="L35" s="129"/>
+      <c r="M35" s="130"/>
+      <c r="N35" s="129" t="s">
         <v>31</v>
       </c>
       <c r="O35" s="4"/>
@@ -7409,31 +7406,31 @@
       <c r="BS35" s="3"/>
     </row>
     <row r="36" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="123" t="s">
+      <c r="A36" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="124">
+      <c r="B36" s="122">
         <v>50495200.000000007</v>
       </c>
-      <c r="C36" s="125"/>
-      <c r="D36" s="126">
+      <c r="C36" s="123"/>
+      <c r="D36" s="124">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/$E$8</f>
         <v>37767.539267015709</v>
       </c>
-      <c r="E36" s="125"/>
-      <c r="F36" s="127"/>
-      <c r="G36" s="127"/>
-      <c r="H36" s="128">
+      <c r="E36" s="123"/>
+      <c r="F36" s="125"/>
+      <c r="G36" s="125"/>
+      <c r="H36" s="126">
         <v>0</v>
       </c>
-      <c r="I36" s="129">
+      <c r="I36" s="127">
         <v>0</v>
       </c>
-      <c r="J36" s="130"/>
-      <c r="K36" s="130"/>
-      <c r="L36" s="131"/>
-      <c r="M36" s="132"/>
-      <c r="N36" s="131" t="s">
+      <c r="J36" s="128"/>
+      <c r="K36" s="128"/>
+      <c r="L36" s="129"/>
+      <c r="M36" s="130"/>
+      <c r="N36" s="129" t="s">
         <v>31</v>
       </c>
       <c r="O36" s="4"/>
@@ -7495,31 +7492,31 @@
       <c r="BS36" s="3"/>
     </row>
     <row r="37" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="123" t="s">
+      <c r="A37" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="124">
+      <c r="B37" s="122">
         <v>45458280</v>
       </c>
-      <c r="C37" s="125"/>
-      <c r="D37" s="126">
+      <c r="C37" s="123"/>
+      <c r="D37" s="124">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/$E$8</f>
         <v>34000.209424083769</v>
       </c>
-      <c r="E37" s="125"/>
-      <c r="F37" s="127"/>
-      <c r="G37" s="127"/>
-      <c r="H37" s="128">
+      <c r="E37" s="123"/>
+      <c r="F37" s="125"/>
+      <c r="G37" s="125"/>
+      <c r="H37" s="126">
         <v>0</v>
       </c>
-      <c r="I37" s="129">
+      <c r="I37" s="127">
         <v>0</v>
       </c>
-      <c r="J37" s="130"/>
-      <c r="K37" s="130"/>
-      <c r="L37" s="131"/>
-      <c r="M37" s="132"/>
-      <c r="N37" s="131" t="s">
+      <c r="J37" s="128"/>
+      <c r="K37" s="128"/>
+      <c r="L37" s="129"/>
+      <c r="M37" s="130"/>
+      <c r="N37" s="129" t="s">
         <v>31</v>
       </c>
       <c r="O37" s="4"/>
@@ -7581,31 +7578,31 @@
       <c r="BS37" s="3"/>
     </row>
     <row r="38" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="123" t="s">
+      <c r="A38" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="124">
+      <c r="B38" s="122">
         <v>46783435.302500002</v>
       </c>
-      <c r="C38" s="125"/>
-      <c r="D38" s="126">
+      <c r="C38" s="123"/>
+      <c r="D38" s="124">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/$E$8</f>
         <v>34991.350263649962</v>
       </c>
-      <c r="E38" s="125"/>
-      <c r="F38" s="127"/>
-      <c r="G38" s="127"/>
-      <c r="H38" s="128">
+      <c r="E38" s="123"/>
+      <c r="F38" s="125"/>
+      <c r="G38" s="125"/>
+      <c r="H38" s="126">
         <v>0</v>
       </c>
-      <c r="I38" s="129">
+      <c r="I38" s="127">
         <v>0</v>
       </c>
-      <c r="J38" s="130"/>
-      <c r="K38" s="130"/>
-      <c r="L38" s="131"/>
-      <c r="M38" s="132"/>
-      <c r="N38" s="131" t="s">
+      <c r="J38" s="128"/>
+      <c r="K38" s="128"/>
+      <c r="L38" s="129"/>
+      <c r="M38" s="130"/>
+      <c r="N38" s="129" t="s">
         <v>31</v>
       </c>
       <c r="O38" s="4"/>
@@ -7667,31 +7664,31 @@
       <c r="BS38" s="3"/>
     </row>
     <row r="39" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="123" t="s">
+      <c r="A39" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="124">
+      <c r="B39" s="122">
         <v>13261602.8025</v>
       </c>
-      <c r="C39" s="125"/>
-      <c r="D39" s="126">
+      <c r="C39" s="123"/>
+      <c r="D39" s="124">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/$E$8</f>
         <v>9918.9250579655945</v>
       </c>
-      <c r="E39" s="125"/>
-      <c r="F39" s="127"/>
-      <c r="G39" s="127"/>
-      <c r="H39" s="128">
+      <c r="E39" s="123"/>
+      <c r="F39" s="125"/>
+      <c r="G39" s="125"/>
+      <c r="H39" s="126">
         <v>0</v>
       </c>
-      <c r="I39" s="129">
+      <c r="I39" s="127">
         <v>0</v>
       </c>
-      <c r="J39" s="130"/>
-      <c r="K39" s="130"/>
-      <c r="L39" s="131"/>
-      <c r="M39" s="132"/>
-      <c r="N39" s="131" t="s">
+      <c r="J39" s="128"/>
+      <c r="K39" s="128"/>
+      <c r="L39" s="129"/>
+      <c r="M39" s="130"/>
+      <c r="N39" s="129" t="s">
         <v>31</v>
       </c>
       <c r="O39" s="4"/>
@@ -7753,31 +7750,31 @@
       <c r="BS39" s="3"/>
     </row>
     <row r="40" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="123" t="s">
+      <c r="A40" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="124">
+      <c r="B40" s="122">
         <v>15465553.231375001</v>
       </c>
-      <c r="C40" s="125"/>
-      <c r="D40" s="126">
+      <c r="C40" s="123"/>
+      <c r="D40" s="124">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/$E$8</f>
         <v>11567.354698111445</v>
       </c>
-      <c r="E40" s="125"/>
-      <c r="F40" s="127"/>
-      <c r="G40" s="127"/>
-      <c r="H40" s="128">
+      <c r="E40" s="123"/>
+      <c r="F40" s="125"/>
+      <c r="G40" s="125"/>
+      <c r="H40" s="126">
         <v>0</v>
       </c>
-      <c r="I40" s="129">
+      <c r="I40" s="127">
         <v>0</v>
       </c>
-      <c r="J40" s="130"/>
-      <c r="K40" s="130"/>
-      <c r="L40" s="131"/>
-      <c r="M40" s="132"/>
-      <c r="N40" s="131" t="s">
+      <c r="J40" s="128"/>
+      <c r="K40" s="128"/>
+      <c r="L40" s="129"/>
+      <c r="M40" s="130"/>
+      <c r="N40" s="129" t="s">
         <v>31</v>
       </c>
       <c r="O40" s="4"/>
@@ -7839,31 +7836,31 @@
       <c r="BS40" s="3"/>
     </row>
     <row r="41" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="123" t="s">
+      <c r="A41" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="124">
+      <c r="B41" s="122">
         <v>33173343.981374998</v>
       </c>
-      <c r="C41" s="125"/>
-      <c r="D41" s="126">
+      <c r="C41" s="123"/>
+      <c r="D41" s="124">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/$E$8</f>
         <v>24811.77560312266</v>
       </c>
-      <c r="E41" s="125"/>
-      <c r="F41" s="127"/>
-      <c r="G41" s="127"/>
-      <c r="H41" s="128">
+      <c r="E41" s="123"/>
+      <c r="F41" s="125"/>
+      <c r="G41" s="125"/>
+      <c r="H41" s="126">
         <v>0</v>
       </c>
-      <c r="I41" s="129">
+      <c r="I41" s="127">
         <v>0</v>
       </c>
-      <c r="J41" s="130"/>
-      <c r="K41" s="130"/>
-      <c r="L41" s="131"/>
-      <c r="M41" s="132"/>
-      <c r="N41" s="131" t="s">
+      <c r="J41" s="128"/>
+      <c r="K41" s="128"/>
+      <c r="L41" s="129"/>
+      <c r="M41" s="130"/>
+      <c r="N41" s="129" t="s">
         <v>31</v>
       </c>
       <c r="O41" s="4"/>
@@ -7925,31 +7922,31 @@
       <c r="BS41" s="3"/>
     </row>
     <row r="42" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="123" t="s">
+      <c r="A42" s="121" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="124">
+      <c r="B42" s="122">
         <v>29653870</v>
       </c>
-      <c r="C42" s="125"/>
-      <c r="D42" s="126">
+      <c r="C42" s="123"/>
+      <c r="D42" s="124">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/$E$8</f>
         <v>22179.409124906506</v>
       </c>
-      <c r="E42" s="125"/>
-      <c r="F42" s="127"/>
-      <c r="G42" s="127"/>
-      <c r="H42" s="128">
+      <c r="E42" s="123"/>
+      <c r="F42" s="125"/>
+      <c r="G42" s="125"/>
+      <c r="H42" s="126">
         <v>0</v>
       </c>
-      <c r="I42" s="129">
+      <c r="I42" s="127">
         <v>0</v>
       </c>
-      <c r="J42" s="130"/>
-      <c r="K42" s="130"/>
-      <c r="L42" s="131"/>
-      <c r="M42" s="132"/>
-      <c r="N42" s="131" t="s">
+      <c r="J42" s="128"/>
+      <c r="K42" s="128"/>
+      <c r="L42" s="129"/>
+      <c r="M42" s="130"/>
+      <c r="N42" s="129" t="s">
         <v>31</v>
       </c>
       <c r="O42" s="4"/>
@@ -8011,31 +8008,31 @@
       <c r="BS42" s="3"/>
     </row>
     <row r="43" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="123" t="s">
+      <c r="A43" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="124">
+      <c r="B43" s="122">
         <v>13362130.000000002</v>
       </c>
-      <c r="C43" s="125"/>
-      <c r="D43" s="126">
+      <c r="C43" s="123"/>
+      <c r="D43" s="124">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/$E$8</f>
         <v>9994.1136873597625</v>
       </c>
-      <c r="E43" s="125"/>
-      <c r="F43" s="127"/>
-      <c r="G43" s="127"/>
-      <c r="H43" s="128">
+      <c r="E43" s="123"/>
+      <c r="F43" s="125"/>
+      <c r="G43" s="125"/>
+      <c r="H43" s="126">
         <v>0</v>
       </c>
-      <c r="I43" s="129">
+      <c r="I43" s="127">
         <v>0</v>
       </c>
-      <c r="J43" s="130"/>
-      <c r="K43" s="130"/>
-      <c r="L43" s="131"/>
-      <c r="M43" s="132"/>
-      <c r="N43" s="131" t="s">
+      <c r="J43" s="128"/>
+      <c r="K43" s="128"/>
+      <c r="L43" s="129"/>
+      <c r="M43" s="130"/>
+      <c r="N43" s="129" t="s">
         <v>31</v>
       </c>
       <c r="O43" s="4"/>
@@ -8103,12 +8100,12 @@
       <c r="B44" s="31">
         <v>183758.2</v>
       </c>
-      <c r="C44" s="101"/>
-      <c r="D44" s="100">
+      <c r="C44" s="100"/>
+      <c r="D44" s="99">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/$E$8</f>
         <v>137.44068810770383</v>
       </c>
-      <c r="E44" s="100"/>
+      <c r="E44" s="99"/>
       <c r="F44" s="27" t="s">
         <v>4</v>
       </c>
@@ -8131,11 +8128,11 @@
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>60</v>
       </c>
-      <c r="M44" s="67">
+      <c r="M44" s="66">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-826</v>
-      </c>
-      <c r="N44" s="60" t="s">
+        <v>-899</v>
+      </c>
+      <c r="N44" s="59" t="s">
         <v>36</v>
       </c>
       <c r="O44" s="4"/>
@@ -8203,12 +8200,12 @@
       <c r="B45" s="31">
         <v>646600</v>
       </c>
-      <c r="C45" s="101"/>
-      <c r="D45" s="100">
+      <c r="C45" s="100"/>
+      <c r="D45" s="99">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/$E$8</f>
         <v>483.62004487658936</v>
       </c>
-      <c r="E45" s="100"/>
+      <c r="E45" s="99"/>
       <c r="F45" s="27" t="s">
         <v>4</v>
       </c>
@@ -8231,11 +8228,11 @@
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>60</v>
       </c>
-      <c r="M45" s="67">
+      <c r="M45" s="66">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-494</v>
-      </c>
-      <c r="N45" s="60" t="s">
+        <v>-567</v>
+      </c>
+      <c r="N45" s="59" t="s">
         <v>36</v>
       </c>
       <c r="O45" s="4"/>
@@ -8303,12 +8300,12 @@
       <c r="B46" s="31">
         <v>275377.3</v>
       </c>
-      <c r="C46" s="101"/>
-      <c r="D46" s="100">
+      <c r="C46" s="100"/>
+      <c r="D46" s="99">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/$E$8</f>
         <v>205.96656694091249</v>
       </c>
-      <c r="E46" s="100"/>
+      <c r="E46" s="99"/>
       <c r="F46" s="27" t="s">
         <v>4</v>
       </c>
@@ -8331,11 +8328,11 @@
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>60</v>
       </c>
-      <c r="M46" s="67">
+      <c r="M46" s="66">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-626</v>
-      </c>
-      <c r="N46" s="60" t="s">
+        <v>-699</v>
+      </c>
+      <c r="N46" s="59" t="s">
         <v>36</v>
       </c>
       <c r="O46" s="4"/>
@@ -8397,34 +8394,34 @@
       <c r="BS46" s="3"/>
     </row>
     <row r="47" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="61" t="s">
+      <c r="A47" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="68">
+      <c r="B47" s="67">
         <f>SUBTOTAL(109,B48:B53)</f>
         <v>6918000</v>
       </c>
-      <c r="C47" s="68">
+      <c r="C47" s="67">
         <f>SUBTOTAL(109,C48:C53)</f>
         <v>6918000</v>
       </c>
-      <c r="D47" s="69">
+      <c r="D47" s="68">
         <f>SUBTOTAL(109,D48:D53)</f>
         <v>5174.2707554225872</v>
       </c>
-      <c r="E47" s="69">
+      <c r="E47" s="68">
         <f>SUBTOTAL(109,E48:E53)</f>
         <v>5174.2707554225872</v>
       </c>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="63"/>
-      <c r="I47" s="63"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="65"/>
-      <c r="M47" s="66"/>
-      <c r="N47" s="65"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="64"/>
+      <c r="M47" s="65"/>
+      <c r="N47" s="64"/>
       <c r="O47" s="4"/>
       <c r="P47" s="34"/>
       <c r="Q47" s="34"/>
@@ -8484,45 +8481,45 @@
       <c r="BS47" s="3"/>
     </row>
     <row r="48" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="89" t="s">
+      <c r="A48" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="90">
+      <c r="B48" s="89">
         <v>1153000</v>
       </c>
-      <c r="C48" s="105">
+      <c r="C48" s="103">
         <v>1153000</v>
       </c>
-      <c r="D48" s="104">
+      <c r="D48" s="102">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/$E$8</f>
         <v>862.37845923709801</v>
       </c>
-      <c r="E48" s="104">
+      <c r="E48" s="102">
         <f>Hitos4352[[#This Row],[A DEVOLVER]]/$E$8</f>
         <v>862.37845923709801</v>
       </c>
-      <c r="F48" s="91" t="s">
+      <c r="F48" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="91" t="s">
+      <c r="G48" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="H48" s="92">
+      <c r="H48" s="91">
         <v>0</v>
       </c>
-      <c r="I48" s="93"/>
-      <c r="J48" s="94">
+      <c r="I48" s="92"/>
+      <c r="J48" s="93">
         <v>45653</v>
       </c>
-      <c r="K48" s="98">
+      <c r="K48" s="97">
         <v>45653</v>
       </c>
-      <c r="L48" s="95">
+      <c r="L48" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>0</v>
       </c>
-      <c r="M48" s="106"/>
-      <c r="N48" s="95" t="s">
+      <c r="M48" s="104"/>
+      <c r="N48" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O48" s="4"/>
@@ -8584,45 +8581,45 @@
       <c r="BS48" s="3"/>
     </row>
     <row r="49" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="89" t="s">
+      <c r="A49" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="90">
+      <c r="B49" s="89">
         <v>1153000</v>
       </c>
-      <c r="C49" s="105">
+      <c r="C49" s="103">
         <v>1153000</v>
       </c>
-      <c r="D49" s="104">
+      <c r="D49" s="102">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/$E$8</f>
         <v>862.37845923709801</v>
       </c>
-      <c r="E49" s="104">
+      <c r="E49" s="102">
         <f>Hitos4352[[#This Row],[A DEVOLVER]]/$E$8</f>
         <v>862.37845923709801</v>
       </c>
-      <c r="F49" s="91" t="s">
+      <c r="F49" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="91" t="s">
+      <c r="G49" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="H49" s="107">
+      <c r="H49" s="105">
         <v>0</v>
       </c>
-      <c r="I49" s="108"/>
-      <c r="J49" s="94">
+      <c r="I49" s="106"/>
+      <c r="J49" s="93">
         <v>45653</v>
       </c>
-      <c r="K49" s="98">
+      <c r="K49" s="97">
         <v>45667</v>
       </c>
-      <c r="L49" s="95">
+      <c r="L49" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>14</v>
       </c>
-      <c r="M49" s="99"/>
-      <c r="N49" s="95" t="s">
+      <c r="M49" s="98"/>
+      <c r="N49" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O49" s="4"/>
@@ -8684,45 +8681,45 @@
       <c r="BS49" s="3"/>
     </row>
     <row r="50" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="89" t="s">
+      <c r="A50" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="B50" s="90">
+      <c r="B50" s="89">
         <v>1153000</v>
       </c>
-      <c r="C50" s="105">
+      <c r="C50" s="103">
         <v>1153000</v>
       </c>
-      <c r="D50" s="104">
+      <c r="D50" s="102">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/$E$8</f>
         <v>862.37845923709801</v>
       </c>
-      <c r="E50" s="104">
+      <c r="E50" s="102">
         <f>Hitos4352[[#This Row],[A DEVOLVER]]/$E$8</f>
         <v>862.37845923709801</v>
       </c>
-      <c r="F50" s="91" t="s">
+      <c r="F50" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="G50" s="91" t="s">
+      <c r="G50" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="H50" s="107">
+      <c r="H50" s="105">
         <v>0</v>
       </c>
-      <c r="I50" s="108"/>
-      <c r="J50" s="94">
+      <c r="I50" s="106"/>
+      <c r="J50" s="93">
         <v>45653</v>
       </c>
-      <c r="K50" s="98">
+      <c r="K50" s="97">
         <v>45698</v>
       </c>
-      <c r="L50" s="95">
+      <c r="L50" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>45</v>
       </c>
-      <c r="M50" s="99"/>
-      <c r="N50" s="95" t="s">
+      <c r="M50" s="98"/>
+      <c r="N50" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O50" s="4"/>
@@ -8784,45 +8781,45 @@
       <c r="BS50" s="3"/>
     </row>
     <row r="51" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="89" t="s">
+      <c r="A51" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="90">
+      <c r="B51" s="89">
         <v>1153000</v>
       </c>
-      <c r="C51" s="105">
+      <c r="C51" s="103">
         <v>1153000</v>
       </c>
-      <c r="D51" s="104">
+      <c r="D51" s="102">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/$E$8</f>
         <v>862.37845923709801</v>
       </c>
-      <c r="E51" s="104">
+      <c r="E51" s="102">
         <f>Hitos4352[[#This Row],[A DEVOLVER]]/$E$8</f>
         <v>862.37845923709801</v>
       </c>
-      <c r="F51" s="91" t="s">
+      <c r="F51" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="G51" s="91" t="s">
+      <c r="G51" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="H51" s="107">
+      <c r="H51" s="105">
         <v>0</v>
       </c>
-      <c r="I51" s="108"/>
-      <c r="J51" s="94">
+      <c r="I51" s="106"/>
+      <c r="J51" s="93">
         <v>45653</v>
       </c>
-      <c r="K51" s="98">
+      <c r="K51" s="97">
         <v>45726</v>
       </c>
-      <c r="L51" s="95">
+      <c r="L51" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>73</v>
       </c>
-      <c r="M51" s="99"/>
-      <c r="N51" s="95" t="s">
+      <c r="M51" s="98"/>
+      <c r="N51" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O51" s="4"/>
@@ -8884,48 +8881,48 @@
       <c r="BS51" s="3"/>
     </row>
     <row r="52" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="89" t="s">
+      <c r="A52" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="90">
+      <c r="B52" s="89">
         <v>1153000</v>
       </c>
-      <c r="C52" s="105">
+      <c r="C52" s="103">
         <v>1153000</v>
       </c>
-      <c r="D52" s="104">
+      <c r="D52" s="102">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/$E$8</f>
         <v>862.37845923709801</v>
       </c>
-      <c r="E52" s="104">
+      <c r="E52" s="102">
         <f>Hitos4352[[#This Row],[A DEVOLVER]]/$E$8</f>
         <v>862.37845923709801</v>
       </c>
-      <c r="F52" s="91" t="s">
+      <c r="F52" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="91" t="s">
+      <c r="G52" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="H52" s="92">
+      <c r="H52" s="91">
         <v>0</v>
       </c>
-      <c r="I52" s="93"/>
-      <c r="J52" s="94">
+      <c r="I52" s="92"/>
+      <c r="J52" s="93">
         <v>45653</v>
       </c>
-      <c r="K52" s="98">
+      <c r="K52" s="97">
         <v>45757</v>
       </c>
-      <c r="L52" s="95">
+      <c r="L52" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>104</v>
       </c>
-      <c r="M52" s="99">
+      <c r="M52" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-187</v>
-      </c>
-      <c r="N52" s="95" t="s">
+        <v>-260</v>
+      </c>
+      <c r="N52" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O52" s="4"/>
@@ -8987,45 +8984,45 @@
       <c r="BS52" s="3"/>
     </row>
     <row r="53" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="89" t="s">
+      <c r="A53" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="B53" s="90">
+      <c r="B53" s="89">
         <v>1153000</v>
       </c>
-      <c r="C53" s="105">
+      <c r="C53" s="103">
         <v>1153000</v>
       </c>
-      <c r="D53" s="104">
+      <c r="D53" s="102">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/$E$8</f>
         <v>862.37845923709801</v>
       </c>
-      <c r="E53" s="104">
+      <c r="E53" s="102">
         <f>Hitos4352[[#This Row],[A DEVOLVER]]/$E$8</f>
         <v>862.37845923709801</v>
       </c>
-      <c r="F53" s="91" t="s">
+      <c r="F53" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="G53" s="91" t="s">
+      <c r="G53" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="H53" s="92">
+      <c r="H53" s="91">
         <v>0</v>
       </c>
-      <c r="I53" s="93"/>
-      <c r="J53" s="94">
+      <c r="I53" s="92"/>
+      <c r="J53" s="93">
         <v>45653</v>
       </c>
-      <c r="K53" s="98">
+      <c r="K53" s="97">
         <v>45787</v>
       </c>
-      <c r="L53" s="95">
+      <c r="L53" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>134</v>
       </c>
-      <c r="M53" s="99"/>
-      <c r="N53" s="95" t="s">
+      <c r="M53" s="98"/>
+      <c r="N53" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O53" s="4"/>
@@ -9087,28 +9084,28 @@
       <c r="BS53" s="3"/>
     </row>
     <row r="54" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="61" t="s">
+      <c r="A54" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="B54" s="68">
+      <c r="B54" s="67">
         <f>SUBTOTAL(109,B55:B70)</f>
         <v>413752664.30360001</v>
       </c>
-      <c r="C54" s="68"/>
-      <c r="D54" s="69">
+      <c r="C54" s="67"/>
+      <c r="D54" s="68">
         <f>SUBTOTAL(109,D55:D70)</f>
         <v>417577.66830360005</v>
       </c>
-      <c r="E54" s="69"/>
-      <c r="F54" s="62"/>
-      <c r="G54" s="62"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="64"/>
-      <c r="K54" s="64"/>
-      <c r="L54" s="65"/>
-      <c r="M54" s="66"/>
-      <c r="N54" s="65"/>
+      <c r="E54" s="68"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="62"/>
+      <c r="I54" s="62"/>
+      <c r="J54" s="63"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="64"/>
+      <c r="M54" s="65"/>
+      <c r="N54" s="64"/>
       <c r="O54" s="4"/>
       <c r="P54" s="34" t="str">
         <f t="shared" ref="P54:AU54" ca="1" si="12">IF(AND($F54="Objetivo",P$7&gt;=$J54,P$7&lt;=$J54+$L54-1),2,IF(AND($F54="Hito",P$7&gt;=$J54,P$7&lt;=$J54+$L54-1),1,""))</f>
@@ -9336,43 +9333,43 @@
       </c>
     </row>
     <row r="55" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="89" t="s">
+      <c r="A55" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="B55" s="90">
+      <c r="B55" s="89">
         <v>15000000</v>
       </c>
-      <c r="C55" s="105"/>
-      <c r="D55" s="104">
+      <c r="C55" s="103"/>
+      <c r="D55" s="102">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/1000</f>
         <v>15000</v>
       </c>
-      <c r="E55" s="104"/>
-      <c r="F55" s="91" t="s">
+      <c r="E55" s="102"/>
+      <c r="F55" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="G55" s="91" t="s">
+      <c r="G55" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="H55" s="92">
+      <c r="H55" s="91">
         <v>0</v>
       </c>
-      <c r="I55" s="93"/>
-      <c r="J55" s="94">
+      <c r="I55" s="92"/>
+      <c r="J55" s="93">
         <v>45616</v>
       </c>
-      <c r="K55" s="98">
+      <c r="K55" s="97">
         <v>45838</v>
       </c>
-      <c r="L55" s="95">
+      <c r="L55" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>222</v>
       </c>
-      <c r="M55" s="99">
+      <c r="M55" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-106</v>
-      </c>
-      <c r="N55" s="95" t="s">
+        <v>-179</v>
+      </c>
+      <c r="N55" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O55" s="4"/>
@@ -9434,43 +9431,43 @@
       <c r="BS55" s="34"/>
     </row>
     <row r="56" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="89" t="s">
+      <c r="A56" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="B56" s="90">
+      <c r="B56" s="89">
         <v>15000000</v>
       </c>
-      <c r="C56" s="105"/>
-      <c r="D56" s="104">
+      <c r="C56" s="103"/>
+      <c r="D56" s="102">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/1000</f>
         <v>15000</v>
       </c>
-      <c r="E56" s="104"/>
-      <c r="F56" s="91" t="s">
+      <c r="E56" s="102"/>
+      <c r="F56" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="G56" s="91" t="s">
+      <c r="G56" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="H56" s="92">
+      <c r="H56" s="91">
         <v>0</v>
       </c>
-      <c r="I56" s="93"/>
-      <c r="J56" s="94">
+      <c r="I56" s="92"/>
+      <c r="J56" s="93">
         <v>45617</v>
       </c>
-      <c r="K56" s="98">
+      <c r="K56" s="97">
         <v>45866</v>
       </c>
-      <c r="L56" s="95">
+      <c r="L56" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>249</v>
       </c>
-      <c r="M56" s="99">
+      <c r="M56" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-78</v>
-      </c>
-      <c r="N56" s="95" t="s">
+        <v>-151</v>
+      </c>
+      <c r="N56" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O56" s="4"/>
@@ -9532,43 +9529,43 @@
       <c r="BS56" s="34"/>
     </row>
     <row r="57" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="89" t="s">
+      <c r="A57" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="B57" s="90">
+      <c r="B57" s="89">
         <v>22589000</v>
       </c>
-      <c r="C57" s="105"/>
-      <c r="D57" s="104">
+      <c r="C57" s="103"/>
+      <c r="D57" s="102">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/1000</f>
         <v>22589</v>
       </c>
-      <c r="E57" s="104"/>
-      <c r="F57" s="91" t="s">
+      <c r="E57" s="102"/>
+      <c r="F57" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="G57" s="91" t="s">
+      <c r="G57" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="H57" s="92">
+      <c r="H57" s="91">
         <v>0</v>
       </c>
-      <c r="I57" s="93"/>
-      <c r="J57" s="94">
+      <c r="I57" s="92"/>
+      <c r="J57" s="93">
         <v>45585</v>
       </c>
-      <c r="K57" s="98">
+      <c r="K57" s="97">
         <v>45950</v>
       </c>
-      <c r="L57" s="95">
+      <c r="L57" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>365</v>
       </c>
-      <c r="M57" s="99">
+      <c r="M57" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>6</v>
-      </c>
-      <c r="N57" s="95" t="s">
+        <v>-67</v>
+      </c>
+      <c r="N57" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O57" s="4"/>
@@ -9630,43 +9627,43 @@
       <c r="BS57" s="34"/>
     </row>
     <row r="58" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="89" t="s">
+      <c r="A58" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="B58" s="90">
+      <c r="B58" s="89">
         <v>3392880</v>
       </c>
-      <c r="C58" s="105"/>
-      <c r="D58" s="104">
+      <c r="C58" s="103"/>
+      <c r="D58" s="102">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/1000</f>
         <v>3392.88</v>
       </c>
-      <c r="E58" s="104"/>
-      <c r="F58" s="91" t="s">
+      <c r="E58" s="102"/>
+      <c r="F58" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="91" t="s">
+      <c r="G58" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="H58" s="92">
+      <c r="H58" s="91">
         <v>0</v>
       </c>
-      <c r="I58" s="93"/>
-      <c r="J58" s="94">
+      <c r="I58" s="92"/>
+      <c r="J58" s="93">
         <v>45575</v>
       </c>
-      <c r="K58" s="94">
+      <c r="K58" s="93">
         <v>45797</v>
       </c>
-      <c r="L58" s="95">
+      <c r="L58" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>222</v>
       </c>
-      <c r="M58" s="99">
+      <c r="M58" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-147</v>
-      </c>
-      <c r="N58" s="95" t="s">
+        <v>-220</v>
+      </c>
+      <c r="N58" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O58" s="4"/>
@@ -9728,43 +9725,43 @@
       <c r="BS58" s="34"/>
     </row>
     <row r="59" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="89" t="s">
+      <c r="A59" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="B59" s="90">
+      <c r="B59" s="89">
         <v>11051058.720000001</v>
       </c>
-      <c r="C59" s="105"/>
-      <c r="D59" s="104">
+      <c r="C59" s="103"/>
+      <c r="D59" s="102">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/1000</f>
         <v>11051.058720000001</v>
       </c>
-      <c r="E59" s="104"/>
-      <c r="F59" s="91" t="s">
+      <c r="E59" s="102"/>
+      <c r="F59" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="G59" s="91" t="s">
+      <c r="G59" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="H59" s="92">
+      <c r="H59" s="91">
         <v>0</v>
       </c>
-      <c r="I59" s="93"/>
-      <c r="J59" s="94">
+      <c r="I59" s="92"/>
+      <c r="J59" s="93">
         <v>45624</v>
       </c>
-      <c r="K59" s="94">
+      <c r="K59" s="93">
         <v>45807</v>
       </c>
-      <c r="L59" s="95">
+      <c r="L59" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>183</v>
       </c>
-      <c r="M59" s="99">
+      <c r="M59" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-137</v>
-      </c>
-      <c r="N59" s="95" t="s">
+        <v>-210</v>
+      </c>
+      <c r="N59" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O59" s="4"/>
@@ -9826,42 +9823,42 @@
       <c r="BS59" s="34"/>
     </row>
     <row r="60" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="89" t="s">
+      <c r="A60" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="B60" s="90">
+      <c r="B60" s="89">
         <v>1286036</v>
       </c>
-      <c r="C60" s="105"/>
-      <c r="D60" s="104">
+      <c r="C60" s="103"/>
+      <c r="D60" s="102">
         <v>1234.2</v>
       </c>
-      <c r="E60" s="104"/>
-      <c r="F60" s="91" t="s">
+      <c r="E60" s="102"/>
+      <c r="F60" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="G60" s="91" t="s">
+      <c r="G60" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="H60" s="92">
+      <c r="H60" s="91">
         <v>0</v>
       </c>
-      <c r="I60" s="93"/>
-      <c r="J60" s="94">
+      <c r="I60" s="92"/>
+      <c r="J60" s="93">
         <v>45673</v>
       </c>
-      <c r="K60" s="94">
+      <c r="K60" s="93">
         <v>45807</v>
       </c>
-      <c r="L60" s="95">
+      <c r="L60" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>134</v>
       </c>
-      <c r="M60" s="99">
+      <c r="M60" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-137</v>
-      </c>
-      <c r="N60" s="95" t="s">
+        <v>-210</v>
+      </c>
+      <c r="N60" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O60" s="4"/>
@@ -9927,11 +9924,11 @@
         <v>80</v>
       </c>
       <c r="B61" s="31"/>
-      <c r="C61" s="101"/>
-      <c r="D61" s="100">
+      <c r="C61" s="100"/>
+      <c r="D61" s="99">
         <v>3876.84</v>
       </c>
-      <c r="E61" s="100"/>
+      <c r="E61" s="99"/>
       <c r="F61" s="27" t="s">
         <v>4</v>
       </c>
@@ -9952,11 +9949,11 @@
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>262</v>
       </c>
-      <c r="M61" s="59">
+      <c r="M61" s="58">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-137</v>
-      </c>
-      <c r="N61" s="60" t="s">
+        <v>-210</v>
+      </c>
+      <c r="N61" s="59" t="s">
         <v>36</v>
       </c>
       <c r="O61" s="4"/>
@@ -10018,35 +10015,35 @@
       <c r="BS61" s="34"/>
     </row>
     <row r="62" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="89" t="s">
+      <c r="A62" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="B62" s="90">
+      <c r="B62" s="89">
         <v>14490496.34</v>
       </c>
-      <c r="C62" s="105"/>
-      <c r="D62" s="104">
+      <c r="C62" s="103"/>
+      <c r="D62" s="102">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/1000</f>
         <v>14490.49634</v>
       </c>
-      <c r="E62" s="104"/>
-      <c r="F62" s="91" t="s">
+      <c r="E62" s="102"/>
+      <c r="F62" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="91" t="s">
+      <c r="G62" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="H62" s="92">
+      <c r="H62" s="91">
         <v>0</v>
       </c>
-      <c r="I62" s="93"/>
-      <c r="J62" s="94"/>
-      <c r="K62" s="94">
+      <c r="I62" s="92"/>
+      <c r="J62" s="93"/>
+      <c r="K62" s="93">
         <v>45868</v>
       </c>
-      <c r="L62" s="95"/>
-      <c r="M62" s="99"/>
-      <c r="N62" s="95" t="s">
+      <c r="L62" s="94"/>
+      <c r="M62" s="98"/>
+      <c r="N62" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O62" s="4"/>
@@ -10108,43 +10105,43 @@
       <c r="BS62" s="34"/>
     </row>
     <row r="63" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="89" t="s">
+      <c r="A63" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="B63" s="90">
+      <c r="B63" s="89">
         <v>16912539.2436</v>
       </c>
-      <c r="C63" s="105"/>
-      <c r="D63" s="104">
+      <c r="C63" s="103"/>
+      <c r="D63" s="102">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/1000</f>
         <v>16912.5392436</v>
       </c>
-      <c r="E63" s="104"/>
-      <c r="F63" s="91" t="s">
+      <c r="E63" s="102"/>
+      <c r="F63" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="G63" s="91" t="s">
+      <c r="G63" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="H63" s="92">
+      <c r="H63" s="91">
         <v>0</v>
       </c>
-      <c r="I63" s="93"/>
-      <c r="J63" s="94">
+      <c r="I63" s="92"/>
+      <c r="J63" s="93">
         <v>45708</v>
       </c>
-      <c r="K63" s="94">
+      <c r="K63" s="93">
         <v>45853</v>
       </c>
-      <c r="L63" s="95">
+      <c r="L63" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>145</v>
       </c>
-      <c r="M63" s="99">
+      <c r="M63" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-91</v>
-      </c>
-      <c r="N63" s="95" t="s">
+        <v>-164</v>
+      </c>
+      <c r="N63" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O63" s="4"/>
@@ -10206,43 +10203,43 @@
       <c r="BS63" s="34"/>
     </row>
     <row r="64" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="89" t="s">
+      <c r="A64" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="B64" s="90">
+      <c r="B64" s="89">
         <v>7597543</v>
       </c>
-      <c r="C64" s="105"/>
-      <c r="D64" s="104">
+      <c r="C64" s="103"/>
+      <c r="D64" s="102">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/1000</f>
         <v>7597.5429999999997</v>
       </c>
-      <c r="E64" s="104"/>
-      <c r="F64" s="91" t="s">
+      <c r="E64" s="102"/>
+      <c r="F64" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="G64" s="91" t="s">
+      <c r="G64" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="H64" s="92">
+      <c r="H64" s="91">
         <v>0</v>
       </c>
-      <c r="I64" s="93"/>
-      <c r="J64" s="94">
+      <c r="I64" s="92"/>
+      <c r="J64" s="93">
         <v>45658</v>
       </c>
-      <c r="K64" s="94">
+      <c r="K64" s="93">
         <v>45689</v>
       </c>
-      <c r="L64" s="95">
+      <c r="L64" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>31</v>
       </c>
-      <c r="M64" s="99">
+      <c r="M64" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-255</v>
-      </c>
-      <c r="N64" s="95" t="s">
+        <v>-328</v>
+      </c>
+      <c r="N64" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O64" s="4"/>
@@ -10304,43 +10301,43 @@
       <c r="BS64" s="34"/>
     </row>
     <row r="65" spans="1:93" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="89" t="s">
+      <c r="A65" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="B65" s="90">
+      <c r="B65" s="89">
         <v>7627382</v>
       </c>
-      <c r="C65" s="105"/>
-      <c r="D65" s="104">
+      <c r="C65" s="103"/>
+      <c r="D65" s="102">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/1000</f>
         <v>7627.3819999999996</v>
       </c>
-      <c r="E65" s="104"/>
-      <c r="F65" s="91" t="s">
+      <c r="E65" s="102"/>
+      <c r="F65" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="G65" s="91" t="s">
+      <c r="G65" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="H65" s="92">
+      <c r="H65" s="91">
         <v>0</v>
       </c>
-      <c r="I65" s="93"/>
-      <c r="J65" s="94">
+      <c r="I65" s="92"/>
+      <c r="J65" s="93">
         <v>45689</v>
       </c>
-      <c r="K65" s="94">
+      <c r="K65" s="93">
         <v>45716</v>
       </c>
-      <c r="L65" s="95">
+      <c r="L65" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>27</v>
       </c>
-      <c r="M65" s="99">
+      <c r="M65" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-228</v>
-      </c>
-      <c r="N65" s="95" t="s">
+        <v>-301</v>
+      </c>
+      <c r="N65" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O65" s="4"/>
@@ -10402,43 +10399,43 @@
       <c r="BS65" s="34"/>
     </row>
     <row r="66" spans="1:93" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="89" t="s">
+      <c r="A66" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="B66" s="90">
+      <c r="B66" s="89">
         <v>17105287</v>
       </c>
-      <c r="C66" s="105"/>
-      <c r="D66" s="104">
+      <c r="C66" s="103"/>
+      <c r="D66" s="102">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/1000</f>
         <v>17105.287</v>
       </c>
-      <c r="E66" s="104"/>
-      <c r="F66" s="91" t="s">
+      <c r="E66" s="102"/>
+      <c r="F66" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="G66" s="91" t="s">
+      <c r="G66" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="H66" s="92">
+      <c r="H66" s="91">
         <v>0</v>
       </c>
-      <c r="I66" s="93"/>
-      <c r="J66" s="94">
+      <c r="I66" s="92"/>
+      <c r="J66" s="93">
         <v>45717</v>
       </c>
-      <c r="K66" s="94">
+      <c r="K66" s="93">
         <v>45747</v>
       </c>
-      <c r="L66" s="95">
+      <c r="L66" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>30</v>
       </c>
-      <c r="M66" s="99">
+      <c r="M66" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-197</v>
-      </c>
-      <c r="N66" s="95" t="s">
+        <v>-270</v>
+      </c>
+      <c r="N66" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O66" s="4"/>
@@ -10500,43 +10497,43 @@
       <c r="BS66" s="34"/>
     </row>
     <row r="67" spans="1:93" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="89" t="s">
+      <c r="A67" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="B67" s="109">
+      <c r="B67" s="107">
         <v>144165417</v>
       </c>
-      <c r="C67" s="105"/>
-      <c r="D67" s="104">
+      <c r="C67" s="103"/>
+      <c r="D67" s="102">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/1000</f>
         <v>144165.41699999999</v>
       </c>
-      <c r="E67" s="104"/>
-      <c r="F67" s="91" t="s">
+      <c r="E67" s="102"/>
+      <c r="F67" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="G67" s="91" t="s">
+      <c r="G67" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="H67" s="92">
+      <c r="H67" s="91">
         <v>0</v>
       </c>
-      <c r="I67" s="93"/>
-      <c r="J67" s="94">
+      <c r="I67" s="92"/>
+      <c r="J67" s="93">
         <v>45748</v>
       </c>
-      <c r="K67" s="94">
+      <c r="K67" s="93">
         <v>45777</v>
       </c>
-      <c r="L67" s="95">
+      <c r="L67" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>29</v>
       </c>
-      <c r="M67" s="99">
+      <c r="M67" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-167</v>
-      </c>
-      <c r="N67" s="95" t="s">
+        <v>-240</v>
+      </c>
+      <c r="N67" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O67" s="4"/>
@@ -10598,43 +10595,43 @@
       <c r="BS67" s="34"/>
     </row>
     <row r="68" spans="1:93" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="89" t="s">
+      <c r="A68" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="B68" s="109">
+      <c r="B68" s="107">
         <v>13291900</v>
       </c>
-      <c r="C68" s="105"/>
-      <c r="D68" s="104">
+      <c r="C68" s="103"/>
+      <c r="D68" s="102">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/1000</f>
         <v>13291.9</v>
       </c>
-      <c r="E68" s="104"/>
-      <c r="F68" s="91" t="s">
+      <c r="E68" s="102"/>
+      <c r="F68" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="G68" s="91" t="s">
+      <c r="G68" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="H68" s="92">
+      <c r="H68" s="91">
         <v>0</v>
       </c>
-      <c r="I68" s="93"/>
-      <c r="J68" s="94">
+      <c r="I68" s="92"/>
+      <c r="J68" s="93">
         <v>45778</v>
       </c>
-      <c r="K68" s="94">
+      <c r="K68" s="93">
         <v>45808</v>
       </c>
-      <c r="L68" s="95">
+      <c r="L68" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>30</v>
       </c>
-      <c r="M68" s="99">
+      <c r="M68" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-136</v>
-      </c>
-      <c r="N68" s="95" t="s">
+        <v>-209</v>
+      </c>
+      <c r="N68" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O68" s="4"/>
@@ -10696,43 +10693,43 @@
       <c r="BS68" s="34"/>
     </row>
     <row r="69" spans="1:93" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="89" t="s">
+      <c r="A69" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="B69" s="109">
+      <c r="B69" s="107">
         <v>59394652</v>
       </c>
-      <c r="C69" s="105"/>
-      <c r="D69" s="104">
+      <c r="C69" s="103"/>
+      <c r="D69" s="102">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/1000</f>
         <v>59394.652000000002</v>
       </c>
-      <c r="E69" s="104"/>
-      <c r="F69" s="91" t="s">
+      <c r="E69" s="102"/>
+      <c r="F69" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="G69" s="91" t="s">
+      <c r="G69" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="H69" s="92">
+      <c r="H69" s="91">
         <v>0</v>
       </c>
-      <c r="I69" s="93"/>
-      <c r="J69" s="94">
+      <c r="I69" s="92"/>
+      <c r="J69" s="93">
         <v>45809</v>
       </c>
-      <c r="K69" s="94">
+      <c r="K69" s="93">
         <v>45838</v>
       </c>
-      <c r="L69" s="95">
+      <c r="L69" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>29</v>
       </c>
-      <c r="M69" s="99">
+      <c r="M69" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-106</v>
-      </c>
-      <c r="N69" s="95" t="s">
+        <v>-179</v>
+      </c>
+      <c r="N69" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O69" s="4"/>
@@ -10794,43 +10791,43 @@
       <c r="BS69" s="34"/>
     </row>
     <row r="70" spans="1:93" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="89" t="s">
+      <c r="A70" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="B70" s="109">
+      <c r="B70" s="107">
         <v>64848473</v>
       </c>
-      <c r="C70" s="105"/>
-      <c r="D70" s="104">
+      <c r="C70" s="103"/>
+      <c r="D70" s="102">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/1000</f>
         <v>64848.472999999998</v>
       </c>
-      <c r="E70" s="104"/>
-      <c r="F70" s="91" t="s">
+      <c r="E70" s="102"/>
+      <c r="F70" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="G70" s="91" t="s">
+      <c r="G70" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="H70" s="92">
+      <c r="H70" s="91">
         <v>0</v>
       </c>
-      <c r="I70" s="93"/>
-      <c r="J70" s="94">
+      <c r="I70" s="92"/>
+      <c r="J70" s="93">
         <v>45839</v>
       </c>
-      <c r="K70" s="94">
+      <c r="K70" s="93">
         <v>45869</v>
       </c>
-      <c r="L70" s="95">
+      <c r="L70" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>30</v>
       </c>
-      <c r="M70" s="99">
+      <c r="M70" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-75</v>
-      </c>
-      <c r="N70" s="95" t="s">
+        <v>-148</v>
+      </c>
+      <c r="N70" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O70" s="4"/>
@@ -10892,40 +10889,40 @@
       <c r="BS70" s="34"/>
     </row>
     <row r="71" spans="1:93" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="89" t="s">
+      <c r="A71" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="B71" s="109">
+      <c r="B71" s="107">
         <f>154957965-116353985</f>
         <v>38603980</v>
       </c>
-      <c r="C71" s="105"/>
-      <c r="D71" s="104">
+      <c r="C71" s="103"/>
+      <c r="D71" s="102">
         <f>Hitos4352[[#This Row],[MONTO INICIAL]]/1000</f>
         <v>38603.980000000003</v>
       </c>
-      <c r="E71" s="104"/>
-      <c r="F71" s="91"/>
-      <c r="G71" s="91"/>
-      <c r="H71" s="92">
+      <c r="E71" s="102"/>
+      <c r="F71" s="90"/>
+      <c r="G71" s="90"/>
+      <c r="H71" s="91">
         <v>0</v>
       </c>
-      <c r="I71" s="93"/>
-      <c r="J71" s="94">
+      <c r="I71" s="92"/>
+      <c r="J71" s="93">
         <v>45870</v>
       </c>
-      <c r="K71" s="94">
+      <c r="K71" s="93">
         <v>45900</v>
       </c>
-      <c r="L71" s="95">
+      <c r="L71" s="94">
         <f>Hitos4352[[#This Row],[FECHA FINAL]]-Hitos4352[[#This Row],[FECHA INICIAL]]</f>
         <v>30</v>
       </c>
-      <c r="M71" s="99">
+      <c r="M71" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-44</v>
-      </c>
-      <c r="N71" s="95" t="s">
+        <v>-117</v>
+      </c>
+      <c r="N71" s="94" t="s">
         <v>31</v>
       </c>
       <c r="O71" s="4"/>
@@ -10987,31 +10984,31 @@
       <c r="BS71" s="34"/>
     </row>
     <row r="72" spans="1:93" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="61" t="s">
+      <c r="A72" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="B72" s="68">
+      <c r="B72" s="67">
         <f>SUBTOTAL(109,B73:B75)</f>
         <v>0</v>
       </c>
-      <c r="C72" s="68">
+      <c r="C72" s="67">
         <f>SUBTOTAL(109,C73:C74)</f>
         <v>0</v>
       </c>
-      <c r="D72" s="69">
+      <c r="D72" s="68">
         <f>SUBTOTAL(109,D73:D75)</f>
         <v>0</v>
       </c>
-      <c r="E72" s="69"/>
-      <c r="F72" s="61"/>
-      <c r="G72" s="61"/>
-      <c r="H72" s="61"/>
-      <c r="I72" s="61"/>
-      <c r="J72" s="61"/>
-      <c r="K72" s="61"/>
-      <c r="L72" s="61"/>
-      <c r="M72" s="61"/>
-      <c r="N72" s="61"/>
+      <c r="E72" s="68"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="60"/>
+      <c r="H72" s="60"/>
+      <c r="I72" s="60"/>
+      <c r="J72" s="60"/>
+      <c r="K72" s="60"/>
+      <c r="L72" s="60"/>
+      <c r="M72" s="60"/>
+      <c r="N72" s="60"/>
       <c r="O72" s="4"/>
       <c r="P72" s="34"/>
       <c r="Q72" s="34"/>
@@ -11073,9 +11070,9 @@
     <row r="73" spans="1:93" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="26"/>
       <c r="B73" s="31"/>
-      <c r="C73" s="101"/>
-      <c r="D73" s="100"/>
-      <c r="E73" s="101"/>
+      <c r="C73" s="100"/>
+      <c r="D73" s="99"/>
+      <c r="E73" s="100"/>
       <c r="F73" s="27"/>
       <c r="G73" s="27"/>
       <c r="H73" s="33"/>
@@ -11083,8 +11080,8 @@
       <c r="J73" s="29"/>
       <c r="K73" s="29"/>
       <c r="L73" s="30"/>
-      <c r="M73" s="67"/>
-      <c r="N73" s="60"/>
+      <c r="M73" s="66"/>
+      <c r="N73" s="59"/>
       <c r="O73" s="4"/>
       <c r="P73" s="34"/>
       <c r="Q73" s="34"/>
@@ -11146,9 +11143,9 @@
     <row r="74" spans="1:93" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="26"/>
       <c r="B74" s="31"/>
-      <c r="C74" s="101"/>
-      <c r="D74" s="100"/>
-      <c r="E74" s="101"/>
+      <c r="C74" s="100"/>
+      <c r="D74" s="99"/>
+      <c r="E74" s="100"/>
       <c r="F74" s="27"/>
       <c r="G74" s="27"/>
       <c r="H74" s="33"/>
@@ -11156,8 +11153,8 @@
       <c r="J74" s="29"/>
       <c r="K74" s="29"/>
       <c r="L74" s="30"/>
-      <c r="M74" s="67"/>
-      <c r="N74" s="60"/>
+      <c r="M74" s="66"/>
+      <c r="N74" s="59"/>
       <c r="O74" s="4"/>
       <c r="P74" s="34"/>
       <c r="Q74" s="34"/>
@@ -11217,11 +11214,11 @@
       <c r="BS74" s="34"/>
     </row>
     <row r="75" spans="1:93" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="70"/>
+      <c r="A75" s="69"/>
       <c r="B75" s="31"/>
-      <c r="C75" s="101"/>
-      <c r="D75" s="100"/>
-      <c r="E75" s="101"/>
+      <c r="C75" s="100"/>
+      <c r="D75" s="99"/>
+      <c r="E75" s="100"/>
       <c r="F75" s="27"/>
       <c r="G75" s="27"/>
       <c r="H75" s="28"/>
@@ -11290,22 +11287,22 @@
       <c r="BS75" s="34"/>
     </row>
     <row r="76" spans="1:93" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="61" t="s">
+      <c r="A76" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="B76" s="68"/>
-      <c r="C76" s="68"/>
-      <c r="D76" s="69"/>
-      <c r="E76" s="69"/>
-      <c r="F76" s="61"/>
-      <c r="G76" s="61"/>
-      <c r="H76" s="61"/>
-      <c r="I76" s="61"/>
-      <c r="J76" s="61"/>
-      <c r="K76" s="61"/>
-      <c r="L76" s="61"/>
-      <c r="M76" s="61"/>
-      <c r="N76" s="61"/>
+      <c r="B76" s="67"/>
+      <c r="C76" s="67"/>
+      <c r="D76" s="68"/>
+      <c r="E76" s="68"/>
+      <c r="F76" s="60"/>
+      <c r="G76" s="60"/>
+      <c r="H76" s="60"/>
+      <c r="I76" s="60"/>
+      <c r="J76" s="60"/>
+      <c r="K76" s="60"/>
+      <c r="L76" s="60"/>
+      <c r="M76" s="60"/>
+      <c r="N76" s="60"/>
       <c r="O76" s="4"/>
       <c r="P76" s="34"/>
       <c r="Q76" s="34"/>
@@ -11365,19 +11362,19 @@
       <c r="BS76" s="34"/>
     </row>
     <row r="77" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="71"/>
-      <c r="B77" s="72"/>
+      <c r="A77" s="70"/>
+      <c r="B77" s="71"/>
       <c r="C77" s="31"/>
       <c r="D77" s="31"/>
       <c r="E77" s="32"/>
-      <c r="F77" s="73"/>
-      <c r="G77" s="74"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="73"/>
       <c r="I77" s="39"/>
-      <c r="J77" s="75"/>
-      <c r="K77" s="76"/>
-      <c r="L77" s="77"/>
-      <c r="M77" s="77"/>
-      <c r="N77" s="77"/>
+      <c r="J77" s="74"/>
+      <c r="K77" s="75"/>
+      <c r="L77" s="76"/>
+      <c r="M77" s="76"/>
+      <c r="N77" s="76"/>
       <c r="O77" s="2"/>
       <c r="BT77" s="1"/>
       <c r="BU77" s="1"/>
@@ -11403,16 +11400,16 @@
       <c r="CO77" s="1"/>
     </row>
     <row r="78" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="71"/>
-      <c r="B78" s="72"/>
+      <c r="A78" s="70"/>
+      <c r="B78" s="71"/>
       <c r="C78" s="31"/>
       <c r="D78" s="31"/>
       <c r="E78" s="32"/>
-      <c r="F78" s="73"/>
-      <c r="G78" s="78"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="77"/>
       <c r="I78" s="39"/>
-      <c r="J78" s="75"/>
-      <c r="K78" s="76"/>
+      <c r="J78" s="74"/>
+      <c r="K78" s="75"/>
       <c r="BT78" s="1"/>
       <c r="BU78" s="1"/>
       <c r="BV78" s="1"/>
@@ -11437,16 +11434,16 @@
       <c r="CO78" s="1"/>
     </row>
     <row r="79" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="71"/>
-      <c r="B79" s="72"/>
+      <c r="A79" s="70"/>
+      <c r="B79" s="71"/>
       <c r="C79" s="31"/>
       <c r="D79" s="31"/>
       <c r="E79" s="32"/>
-      <c r="F79" s="73"/>
-      <c r="G79" s="73"/>
+      <c r="F79" s="72"/>
+      <c r="G79" s="72"/>
       <c r="I79" s="39"/>
-      <c r="J79" s="75"/>
-      <c r="K79" s="76"/>
+      <c r="J79" s="74"/>
+      <c r="K79" s="75"/>
       <c r="BT79" s="1"/>
       <c r="BU79" s="1"/>
       <c r="BV79" s="1"/>
@@ -11471,16 +11468,16 @@
       <c r="CO79" s="1"/>
     </row>
     <row r="80" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="71"/>
-      <c r="B80" s="72"/>
+      <c r="A80" s="70"/>
+      <c r="B80" s="71"/>
       <c r="C80" s="31"/>
       <c r="D80" s="31"/>
       <c r="E80" s="32"/>
-      <c r="F80" s="73"/>
-      <c r="G80" s="73"/>
+      <c r="F80" s="72"/>
+      <c r="G80" s="72"/>
       <c r="I80" s="39"/>
-      <c r="J80" s="75"/>
-      <c r="K80" s="76"/>
+      <c r="J80" s="74"/>
+      <c r="K80" s="75"/>
       <c r="BT80" s="1"/>
       <c r="BU80" s="1"/>
       <c r="BV80" s="1"/>
@@ -11505,16 +11502,16 @@
       <c r="CO80" s="1"/>
     </row>
     <row r="81" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="71"/>
-      <c r="B81" s="72"/>
+      <c r="A81" s="70"/>
+      <c r="B81" s="71"/>
       <c r="C81" s="31"/>
       <c r="D81" s="31"/>
       <c r="E81" s="32"/>
-      <c r="F81" s="73"/>
-      <c r="G81" s="73"/>
+      <c r="F81" s="72"/>
+      <c r="G81" s="72"/>
       <c r="I81" s="39"/>
-      <c r="J81" s="75"/>
-      <c r="K81" s="76"/>
+      <c r="J81" s="74"/>
+      <c r="K81" s="75"/>
       <c r="BT81" s="1"/>
       <c r="BU81" s="1"/>
       <c r="BV81" s="1"/>
@@ -11539,16 +11536,16 @@
       <c r="CO81" s="1"/>
     </row>
     <row r="82" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="71"/>
-      <c r="B82" s="72"/>
+      <c r="A82" s="70"/>
+      <c r="B82" s="71"/>
       <c r="C82" s="31"/>
       <c r="D82" s="31"/>
       <c r="E82" s="32"/>
-      <c r="F82" s="73"/>
-      <c r="G82" s="73"/>
+      <c r="F82" s="72"/>
+      <c r="G82" s="72"/>
       <c r="I82" s="39"/>
-      <c r="J82" s="75"/>
-      <c r="K82" s="76"/>
+      <c r="J82" s="74"/>
+      <c r="K82" s="75"/>
       <c r="BT82" s="1"/>
       <c r="BU82" s="1"/>
       <c r="BV82" s="1"/>
@@ -11693,7 +11690,7 @@
       <c r="CO87" s="1"/>
     </row>
     <row r="88" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E88" s="88"/>
+      <c r="E88" s="87"/>
       <c r="BT88" s="1"/>
       <c r="BU88" s="1"/>
       <c r="BV88" s="1"/>
@@ -11947,31 +11944,31 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="108" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="108" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="108" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="110" t="s">
+      <c r="E2" s="108" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="110" t="s">
+      <c r="F2" s="108" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="110" t="s">
+      <c r="G2" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="110" t="s">
+      <c r="H2" s="108" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="I2" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="110"/>
+      <c r="J2" s="108"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
@@ -11979,185 +11976,185 @@
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
       <c r="E3" s="36"/>
-      <c r="F3" s="112"/>
+      <c r="F3" s="110"/>
       <c r="G3" s="36"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="36"/>
-      <c r="B4" s="117">
+      <c r="B4" s="115">
         <v>45859</v>
       </c>
-      <c r="C4" s="117">
+      <c r="C4" s="115">
         <v>45877</v>
       </c>
       <c r="D4" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="113">
+      <c r="E4" s="111">
         <v>25000</v>
       </c>
-      <c r="F4" s="114">
+      <c r="F4" s="112">
         <v>1340</v>
       </c>
-      <c r="G4" s="114">
+      <c r="G4" s="112">
         <f>E4*F4</f>
         <v>33500000</v>
       </c>
-      <c r="H4" s="122">
+      <c r="H4" s="120">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="I4" s="122">
+      <c r="I4" s="120">
         <v>7.4200000000000002E-2</v>
       </c>
-      <c r="J4" s="119"/>
+      <c r="J4" s="117"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
       <c r="D5" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="113"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
       <c r="D6" s="36"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
       <c r="D7" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="111">
+      <c r="E7" s="109">
         <v>1001.87</v>
       </c>
-      <c r="F7" s="114">
+      <c r="F7" s="112">
         <v>1340</v>
       </c>
-      <c r="G7" s="114">
+      <c r="G7" s="112">
         <f t="shared" ref="G7:G12" si="0">E7*F7</f>
         <v>1342505.8</v>
       </c>
-      <c r="H7" s="120">
+      <c r="H7" s="118">
         <f>(H4)*270/365*E4</f>
         <v>915.41095890410963</v>
       </c>
-      <c r="I7" s="120">
+      <c r="I7" s="118">
         <f>(I4)*17/365*E4</f>
         <v>86.397260273972606</v>
       </c>
-      <c r="J7" s="119"/>
+      <c r="J7" s="117"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
-      <c r="B8" s="118"/>
-      <c r="C8" s="118"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
       <c r="D8" s="36"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="36"/>
-      <c r="B9" s="118"/>
-      <c r="C9" s="118"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
       <c r="D9" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="111">
+      <c r="E9" s="109">
         <v>105.2</v>
       </c>
-      <c r="F9" s="114">
+      <c r="F9" s="112">
         <v>1340</v>
       </c>
-      <c r="G9" s="114">
+      <c r="G9" s="112">
         <f t="shared" si="0"/>
         <v>140968</v>
       </c>
-      <c r="H9" s="120">
+      <c r="H9" s="118">
         <f>H7*10.5/100</f>
         <v>96.118150684931521</v>
       </c>
-      <c r="I9" s="120">
+      <c r="I9" s="118">
         <f>I7*10.5/100</f>
         <v>9.0717123287671235</v>
       </c>
-      <c r="J9" s="119"/>
+      <c r="J9" s="117"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="118"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="116"/>
       <c r="D10" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="111"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="36"/>
-      <c r="B11" s="118"/>
-      <c r="C11" s="118"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="116"/>
       <c r="D11" s="36"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="118"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
       <c r="D12" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="111">
+      <c r="E12" s="109">
         <v>15.03</v>
       </c>
-      <c r="F12" s="114">
+      <c r="F12" s="112">
         <v>1340</v>
       </c>
-      <c r="G12" s="114">
+      <c r="G12" s="112">
         <f t="shared" si="0"/>
         <v>20140.2</v>
       </c>
-      <c r="H12" s="120">
+      <c r="H12" s="118">
         <f>H7*0.015</f>
         <v>13.731164383561644</v>
       </c>
-      <c r="I12" s="120">
+      <c r="I12" s="118">
         <f>I7*0.015</f>
         <v>1.2959589041095891</v>
       </c>
-      <c r="J12" s="119"/>
+      <c r="J12" s="117"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="36"/>
@@ -12167,9 +12164,9 @@
       <c r="E13" s="36"/>
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="119"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
@@ -12179,33 +12176,33 @@
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="119"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="36"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="121"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="119"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
-      <c r="E16" s="111">
+      <c r="E16" s="109">
         <f t="shared" ref="E16" si="1">SUM(E4:E13)</f>
         <v>26122.1</v>
       </c>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116">
+      <c r="F16" s="114"/>
+      <c r="G16" s="114">
         <f>SUM(G4:G13)</f>
         <v>35003614</v>
       </c>
@@ -12249,28 +12246,28 @@
       <c r="I1" s="36"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="108" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="108" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="108" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="110" t="s">
+      <c r="E2" s="108" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="110" t="s">
+      <c r="F2" s="108" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="110" t="s">
+      <c r="G2" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="110" t="s">
+      <c r="H2" s="108" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="I2" s="108" t="s">
         <v>101</v>
       </c>
     </row>
@@ -12279,163 +12276,163 @@
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
       <c r="E3" s="36"/>
-      <c r="F3" s="112"/>
+      <c r="F3" s="110"/>
       <c r="G3" s="36"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="117">
+      <c r="B4" s="115">
         <v>45807</v>
       </c>
-      <c r="C4" s="117">
+      <c r="C4" s="115">
         <v>45820</v>
       </c>
       <c r="D4" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="113">
+      <c r="E4" s="111">
         <v>20000</v>
       </c>
-      <c r="F4" s="114">
+      <c r="F4" s="112">
         <v>1198</v>
       </c>
-      <c r="G4" s="114">
+      <c r="G4" s="112">
         <f>E4*F4</f>
         <v>23960000</v>
       </c>
-      <c r="H4" s="122">
+      <c r="H4" s="120">
         <v>0.04</v>
       </c>
-      <c r="I4" s="122">
+      <c r="I4" s="120">
         <v>0.06</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
       <c r="D5" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="113"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
       <c r="D6" s="36"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
       <c r="D7" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="111">
+      <c r="E7" s="109">
         <v>503.01</v>
       </c>
-      <c r="F7" s="114">
+      <c r="F7" s="112">
         <v>1198</v>
       </c>
-      <c r="G7" s="114">
+      <c r="G7" s="112">
         <f t="shared" ref="G7:G12" si="0">E7*F7</f>
         <v>602605.98</v>
       </c>
-      <c r="H7" s="120">
+      <c r="H7" s="118">
         <f>E4*H4*210/365</f>
         <v>460.27397260273972</v>
       </c>
-      <c r="I7" s="120">
+      <c r="I7" s="118">
         <f>E4*I4*13/365</f>
         <v>42.739726027397261</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="118"/>
-      <c r="C8" s="118"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
       <c r="D8" s="36"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="118"/>
-      <c r="C9" s="118"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
       <c r="D9" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="111">
+      <c r="E9" s="109">
         <v>52.82</v>
       </c>
-      <c r="F9" s="114">
+      <c r="F9" s="112">
         <v>1198</v>
       </c>
-      <c r="G9" s="114">
+      <c r="G9" s="112">
         <f t="shared" si="0"/>
         <v>63278.36</v>
       </c>
-      <c r="H9" s="120">
+      <c r="H9" s="118">
         <f>H7*0.105</f>
         <v>48.328767123287669</v>
       </c>
-      <c r="I9" s="120">
+      <c r="I9" s="118">
         <f>I7*0.105</f>
         <v>4.4876712328767123</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="118"/>
-      <c r="C10" s="118"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="116"/>
       <c r="D10" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="111"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="118"/>
-      <c r="C11" s="118"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="116"/>
       <c r="D11" s="36"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="118"/>
-      <c r="C12" s="118"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
       <c r="D12" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="111">
+      <c r="E12" s="109">
         <v>7.55</v>
       </c>
-      <c r="F12" s="114">
+      <c r="F12" s="112">
         <v>1198</v>
       </c>
-      <c r="G12" s="114">
+      <c r="G12" s="112">
         <f t="shared" si="0"/>
         <v>9044.9</v>
       </c>
-      <c r="H12" s="120">
+      <c r="H12" s="118">
         <f>H7*0.015</f>
         <v>6.904109589041096</v>
       </c>
-      <c r="I12" s="120">
+      <c r="I12" s="118">
         <f>I7*0.015</f>
         <v>0.64109589041095894</v>
       </c>
@@ -12447,8 +12444,8 @@
       <c r="E13" s="36"/>
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="36"/>
@@ -12457,29 +12454,29 @@
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="115"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="121"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
-      <c r="E16" s="111">
+      <c r="E16" s="109">
         <f t="shared" ref="E16:G16" si="1">SUM(E4:E13)</f>
         <v>20563.379999999997</v>
       </c>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116">
+      <c r="F16" s="114"/>
+      <c r="G16" s="114">
         <f t="shared" si="1"/>
         <v>24634929.239999998</v>
       </c>
@@ -12492,22 +12489,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12787,22 +12774,28 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12829,9 +12822,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/5-COMPROMISOS 2025.xlsx
+++ b/5-COMPROMISOS 2025.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AD2CAC-A3E0-4B68-8F1A-C1072214761F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F433BCA8-9D12-4D88-B32B-D1433127B114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1622,6 +1622,9 @@
     <xf numFmtId="1" fontId="1" fillId="45" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1645,9 +1648,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -2761,8 +2761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9BEAD0-786A-4F3A-BCD3-DA7444CB9941}">
   <dimension ref="A1:CO89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="Z17" sqref="Z17"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2787,35 +2787,35 @@
   <sheetData>
     <row r="1" spans="1:78" ht="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:78" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="144"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="145"/>
-      <c r="S2" s="145"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="146"/>
-      <c r="W2" s="146"/>
-      <c r="X2" s="146"/>
-      <c r="Y2" s="146"/>
-      <c r="Z2" s="146"/>
-      <c r="AA2" s="146"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="147"/>
+      <c r="W2" s="147"/>
+      <c r="X2" s="147"/>
+      <c r="Y2" s="147"/>
+      <c r="Z2" s="147"/>
+      <c r="AA2" s="147"/>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
@@ -2904,36 +2904,36 @@
       <c r="M4" s="9"/>
       <c r="N4" s="46"/>
       <c r="O4" s="8"/>
-      <c r="P4" s="147" t="s">
+      <c r="P4" s="148" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="147"/>
-      <c r="R4" s="147"/>
-      <c r="S4" s="147"/>
-      <c r="U4" s="148" t="s">
+      <c r="Q4" s="148"/>
+      <c r="R4" s="148"/>
+      <c r="S4" s="148"/>
+      <c r="U4" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="148"/>
-      <c r="W4" s="148"/>
-      <c r="X4" s="148"/>
-      <c r="Z4" s="149" t="s">
+      <c r="V4" s="149"/>
+      <c r="W4" s="149"/>
+      <c r="X4" s="149"/>
+      <c r="Z4" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="AA4" s="149"/>
-      <c r="AB4" s="149"/>
-      <c r="AC4" s="149"/>
-      <c r="AE4" s="142" t="s">
+      <c r="AA4" s="150"/>
+      <c r="AB4" s="150"/>
+      <c r="AC4" s="150"/>
+      <c r="AE4" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="AF4" s="142"/>
-      <c r="AG4" s="142"/>
-      <c r="AH4" s="142"/>
-      <c r="AJ4" s="143" t="s">
+      <c r="AF4" s="143"/>
+      <c r="AG4" s="143"/>
+      <c r="AH4" s="143"/>
+      <c r="AJ4" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="AK4" s="143"/>
-      <c r="AL4" s="143"/>
-      <c r="AM4" s="143"/>
+      <c r="AK4" s="144"/>
+      <c r="AL4" s="144"/>
+      <c r="AM4" s="144"/>
     </row>
     <row r="5" spans="1:78" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="79" t="s">
@@ -2962,7 +2962,7 @@
       <c r="D6" s="82"/>
       <c r="E6" s="83" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">IFERROR(IF(MIN(Hitos4352[FECHA INICIAL])=0,TODAY(),#REF!(Hitos4352[FECHA INICIAL])),TODAY())</f>
-        <v>46017</v>
+        <v>46079</v>
       </c>
       <c r="G6" s="83"/>
       <c r="H6" s="8"/>
@@ -2975,7 +2975,7 @@
       <c r="O6" s="8"/>
       <c r="P6" s="14" t="str">
         <f ca="1">TEXT(P7,"mmmm")</f>
-        <v>diciembre</v>
+        <v>febrero</v>
       </c>
       <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
@@ -2985,7 +2985,7 @@
       <c r="V6" s="14"/>
       <c r="W6" s="14" t="str">
         <f ca="1">IF(TEXT(W7,"mmmm")=P6,"",TEXT(W7,"mmmm"))</f>
-        <v>enero</v>
+        <v>marzo</v>
       </c>
       <c r="X6" s="14"/>
       <c r="Y6" s="14"/>
@@ -3025,7 +3025,7 @@
       <c r="AX6" s="14"/>
       <c r="AY6" s="14" t="str">
         <f ca="1">IF(OR(TEXT(AY7,"mmmm")=AR6,TEXT(AY7,"mmmm")=AK6,TEXT(AY7,"mmmm")=AD6,TEXT(AY7,"mmmm")=W6),"",TEXT(AY7,"mmmm"))</f>
-        <v/>
+        <v>abril</v>
       </c>
       <c r="AZ6" s="14"/>
       <c r="BA6" s="14"/>
@@ -3035,7 +3035,7 @@
       <c r="BE6" s="15"/>
       <c r="BF6" s="15" t="str">
         <f ca="1">IF(OR(TEXT(BF7,"mmmm")=AY6,TEXT(BF7,"mmmm")=AR6,TEXT(BF7,"mmmm")=AK6,TEXT(BF7,"mmmm")=AD6),"",TEXT(BF7,"mmmm"))</f>
-        <v>febrero</v>
+        <v/>
       </c>
       <c r="BG6" s="15"/>
       <c r="BH6" s="15"/>
@@ -3075,227 +3075,227 @@
       <c r="O7" s="10"/>
       <c r="P7" s="18">
         <f ca="1">IFERROR(Inicio_del_proyecto+Incremento_de_desplazamiento,TODAY())</f>
-        <v>46018</v>
+        <v>46080</v>
       </c>
       <c r="Q7" s="19">
         <f ca="1">P7+1</f>
-        <v>46019</v>
+        <v>46081</v>
       </c>
       <c r="R7" s="19">
         <f t="shared" ref="R7:BE7" ca="1" si="0">Q7+1</f>
-        <v>46020</v>
+        <v>46082</v>
       </c>
       <c r="S7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>46021</v>
+        <v>46083</v>
       </c>
       <c r="T7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>46022</v>
+        <v>46084</v>
       </c>
       <c r="U7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>46023</v>
+        <v>46085</v>
       </c>
       <c r="V7" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>46024</v>
+        <v>46086</v>
       </c>
       <c r="W7" s="19">
         <f ca="1">V7+1</f>
-        <v>46025</v>
+        <v>46087</v>
       </c>
       <c r="X7" s="19">
         <f ca="1">W7+1</f>
-        <v>46026</v>
+        <v>46088</v>
       </c>
       <c r="Y7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>46027</v>
+        <v>46089</v>
       </c>
       <c r="Z7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>46028</v>
+        <v>46090</v>
       </c>
       <c r="AA7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>46029</v>
+        <v>46091</v>
       </c>
       <c r="AB7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>46030</v>
+        <v>46092</v>
       </c>
       <c r="AC7" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>46031</v>
+        <v>46093</v>
       </c>
       <c r="AD7" s="19">
         <f ca="1">AC7+1</f>
-        <v>46032</v>
+        <v>46094</v>
       </c>
       <c r="AE7" s="19">
         <f ca="1">AD7+1</f>
-        <v>46033</v>
+        <v>46095</v>
       </c>
       <c r="AF7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>46034</v>
+        <v>46096</v>
       </c>
       <c r="AG7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>46035</v>
+        <v>46097</v>
       </c>
       <c r="AH7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>46036</v>
+        <v>46098</v>
       </c>
       <c r="AI7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>46037</v>
+        <v>46099</v>
       </c>
       <c r="AJ7" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>46038</v>
+        <v>46100</v>
       </c>
       <c r="AK7" s="19">
         <f ca="1">AJ7+1</f>
-        <v>46039</v>
+        <v>46101</v>
       </c>
       <c r="AL7" s="19">
         <f ca="1">AK7+1</f>
-        <v>46040</v>
+        <v>46102</v>
       </c>
       <c r="AM7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>46041</v>
+        <v>46103</v>
       </c>
       <c r="AN7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>46042</v>
+        <v>46104</v>
       </c>
       <c r="AO7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>46043</v>
+        <v>46105</v>
       </c>
       <c r="AP7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>46044</v>
+        <v>46106</v>
       </c>
       <c r="AQ7" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>46045</v>
+        <v>46107</v>
       </c>
       <c r="AR7" s="19">
         <f ca="1">AQ7+1</f>
-        <v>46046</v>
+        <v>46108</v>
       </c>
       <c r="AS7" s="19">
         <f ca="1">AR7+1</f>
-        <v>46047</v>
+        <v>46109</v>
       </c>
       <c r="AT7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>46048</v>
+        <v>46110</v>
       </c>
       <c r="AU7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>46049</v>
+        <v>46111</v>
       </c>
       <c r="AV7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>46050</v>
+        <v>46112</v>
       </c>
       <c r="AW7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>46051</v>
+        <v>46113</v>
       </c>
       <c r="AX7" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>46052</v>
+        <v>46114</v>
       </c>
       <c r="AY7" s="19">
         <f ca="1">AX7+1</f>
-        <v>46053</v>
+        <v>46115</v>
       </c>
       <c r="AZ7" s="19">
         <f ca="1">AY7+1</f>
-        <v>46054</v>
+        <v>46116</v>
       </c>
       <c r="BA7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>46055</v>
+        <v>46117</v>
       </c>
       <c r="BB7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>46056</v>
+        <v>46118</v>
       </c>
       <c r="BC7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>46057</v>
+        <v>46119</v>
       </c>
       <c r="BD7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>46058</v>
+        <v>46120</v>
       </c>
       <c r="BE7" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>46059</v>
+        <v>46121</v>
       </c>
       <c r="BF7" s="19">
         <f ca="1">BE7+1</f>
-        <v>46060</v>
+        <v>46122</v>
       </c>
       <c r="BG7" s="19">
         <f ca="1">BF7+1</f>
-        <v>46061</v>
+        <v>46123</v>
       </c>
       <c r="BH7" s="19">
         <f t="shared" ref="BH7:BL7" ca="1" si="1">BG7+1</f>
-        <v>46062</v>
+        <v>46124</v>
       </c>
       <c r="BI7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>46063</v>
+        <v>46125</v>
       </c>
       <c r="BJ7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>46064</v>
+        <v>46126</v>
       </c>
       <c r="BK7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>46065</v>
+        <v>46127</v>
       </c>
       <c r="BL7" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>46066</v>
+        <v>46128</v>
       </c>
       <c r="BM7" s="19">
         <f ca="1">BL7+1</f>
-        <v>46067</v>
+        <v>46129</v>
       </c>
       <c r="BN7" s="19">
         <f ca="1">BM7+1</f>
-        <v>46068</v>
+        <v>46130</v>
       </c>
       <c r="BO7" s="19">
         <f t="shared" ref="BO7:BS7" ca="1" si="2">BN7+1</f>
-        <v>46069</v>
+        <v>46131</v>
       </c>
       <c r="BP7" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>46070</v>
+        <v>46132</v>
       </c>
       <c r="BQ7" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>46071</v>
+        <v>46133</v>
       </c>
       <c r="BR7" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>46072</v>
+        <v>46134</v>
       </c>
       <c r="BS7" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>46073</v>
+        <v>46135</v>
       </c>
     </row>
     <row r="8" spans="1:78" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -3383,7 +3383,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="86">
         <f ca="1">TODAY()</f>
-        <v>46017</v>
+        <v>46079</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
@@ -3584,19 +3584,19 @@
       <c r="O11" s="12"/>
       <c r="P11" s="37" t="str">
         <f t="shared" ref="P11:BS11" ca="1" si="3">LEFT(TEXT(P7,"ddd"),1)</f>
-        <v>s</v>
+        <v>v</v>
       </c>
       <c r="Q11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="R11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>d</v>
       </c>
       <c r="S11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="T11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3604,27 +3604,27 @@
       </c>
       <c r="U11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="V11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="W11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>v</v>
       </c>
       <c r="X11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="Y11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>d</v>
       </c>
       <c r="Z11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="AA11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3632,27 +3632,27 @@
       </c>
       <c r="AB11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="AC11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="AD11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>v</v>
       </c>
       <c r="AE11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="AF11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>d</v>
       </c>
       <c r="AG11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="AH11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3660,27 +3660,27 @@
       </c>
       <c r="AI11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="AJ11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="AK11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>v</v>
       </c>
       <c r="AL11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="AM11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>d</v>
       </c>
       <c r="AN11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="AO11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3688,27 +3688,27 @@
       </c>
       <c r="AP11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="AQ11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="AR11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>v</v>
       </c>
       <c r="AS11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="AT11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>d</v>
       </c>
       <c r="AU11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="AV11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3716,27 +3716,27 @@
       </c>
       <c r="AW11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="AX11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="AY11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>v</v>
       </c>
       <c r="AZ11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="BA11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>d</v>
       </c>
       <c r="BB11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="BC11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3744,27 +3744,27 @@
       </c>
       <c r="BD11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="BE11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="BF11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>v</v>
       </c>
       <c r="BG11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="BH11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>d</v>
       </c>
       <c r="BI11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="BJ11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3772,27 +3772,27 @@
       </c>
       <c r="BK11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="BL11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="BM11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>v</v>
       </c>
       <c r="BN11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="BO11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>d</v>
       </c>
       <c r="BP11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="BQ11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3800,11 +3800,11 @@
       </c>
       <c r="BR11" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="BS11" s="17" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>j</v>
       </c>
     </row>
     <row r="12" spans="1:78" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4373,7 +4373,7 @@
       </c>
       <c r="M14" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-E$9</f>
-        <v>-158</v>
+        <v>-220</v>
       </c>
       <c r="N14" s="94" t="s">
         <v>31</v>
@@ -4645,7 +4645,7 @@
       </c>
       <c r="M15" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-E$9</f>
-        <v>-210</v>
+        <v>-272</v>
       </c>
       <c r="N15" s="94" t="s">
         <v>31</v>
@@ -4918,7 +4918,7 @@
       </c>
       <c r="M16" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-E$9</f>
-        <v>-119</v>
+        <v>-181</v>
       </c>
       <c r="N16" s="94" t="s">
         <v>31</v>
@@ -5150,7 +5150,7 @@
       </c>
     </row>
     <row r="17" spans="1:71" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="150" t="s">
+      <c r="A17" s="142" t="s">
         <v>35</v>
       </c>
       <c r="B17" s="89">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="M17" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-E$9</f>
-        <v>-86</v>
+        <v>-148</v>
       </c>
       <c r="N17" s="94" t="s">
         <v>31</v>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="M18" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-E$9</f>
-        <v>-192</v>
+        <v>-254</v>
       </c>
       <c r="N18" s="94" t="s">
         <v>31</v>
@@ -5569,7 +5569,7 @@
       </c>
       <c r="M19" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-E$9</f>
-        <v>-128</v>
+        <v>-190</v>
       </c>
       <c r="N19" s="94" t="s">
         <v>31</v>
@@ -5675,7 +5675,7 @@
       </c>
       <c r="M20" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-E$9</f>
-        <v>-245</v>
+        <v>-307</v>
       </c>
       <c r="N20" s="94" t="s">
         <v>31</v>
@@ -5780,7 +5780,7 @@
       </c>
       <c r="M21" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-E$9</f>
-        <v>-214</v>
+        <v>-276</v>
       </c>
       <c r="N21" s="94" t="s">
         <v>31</v>
@@ -5885,7 +5885,7 @@
       </c>
       <c r="M22" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-E$9</f>
-        <v>-184</v>
+        <v>-246</v>
       </c>
       <c r="N22" s="94" t="s">
         <v>31</v>
@@ -5990,7 +5990,7 @@
       </c>
       <c r="M23" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-E$9</f>
-        <v>-154</v>
+        <v>-216</v>
       </c>
       <c r="N23" s="94" t="s">
         <v>31</v>
@@ -6095,7 +6095,7 @@
       </c>
       <c r="M24" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-E$9</f>
-        <v>-123</v>
+        <v>-185</v>
       </c>
       <c r="N24" s="94" t="s">
         <v>31</v>
@@ -6200,7 +6200,7 @@
       </c>
       <c r="M25" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-E$9</f>
-        <v>-92</v>
+        <v>-154</v>
       </c>
       <c r="N25" s="94" t="s">
         <v>31</v>
@@ -6303,7 +6303,7 @@
       </c>
       <c r="M26" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-E$9</f>
-        <v>-79</v>
+        <v>-141</v>
       </c>
       <c r="N26" s="94" t="s">
         <v>31</v>
@@ -6406,7 +6406,7 @@
       </c>
       <c r="M27" s="141">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-E$9</f>
-        <v>-77</v>
+        <v>-139</v>
       </c>
       <c r="N27" s="140" t="s">
         <v>31</v>
@@ -6509,7 +6509,7 @@
       </c>
       <c r="M28" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-E$9</f>
-        <v>-203</v>
+        <v>-265</v>
       </c>
       <c r="N28" s="94" t="s">
         <v>31</v>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="M29" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-E$9</f>
-        <v>-226</v>
+        <v>-288</v>
       </c>
       <c r="N29" s="94" t="s">
         <v>31</v>
@@ -6715,7 +6715,7 @@
       </c>
       <c r="M30" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-E$9</f>
-        <v>-88</v>
+        <v>-150</v>
       </c>
       <c r="N30" s="94" t="s">
         <v>31</v>
@@ -6818,7 +6818,7 @@
       </c>
       <c r="M31" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-E$9</f>
-        <v>-221</v>
+        <v>-283</v>
       </c>
       <c r="N31" s="94" t="s">
         <v>31</v>
@@ -8130,7 +8130,7 @@
       </c>
       <c r="M44" s="66">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-899</v>
+        <v>-961</v>
       </c>
       <c r="N44" s="59" t="s">
         <v>36</v>
@@ -8230,7 +8230,7 @@
       </c>
       <c r="M45" s="66">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-567</v>
+        <v>-629</v>
       </c>
       <c r="N45" s="59" t="s">
         <v>36</v>
@@ -8330,7 +8330,7 @@
       </c>
       <c r="M46" s="66">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-699</v>
+        <v>-761</v>
       </c>
       <c r="N46" s="59" t="s">
         <v>36</v>
@@ -8920,7 +8920,7 @@
       </c>
       <c r="M52" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-260</v>
+        <v>-322</v>
       </c>
       <c r="N52" s="94" t="s">
         <v>31</v>
@@ -9367,7 +9367,7 @@
       </c>
       <c r="M55" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-179</v>
+        <v>-241</v>
       </c>
       <c r="N55" s="94" t="s">
         <v>31</v>
@@ -9465,7 +9465,7 @@
       </c>
       <c r="M56" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-151</v>
+        <v>-213</v>
       </c>
       <c r="N56" s="94" t="s">
         <v>31</v>
@@ -9563,7 +9563,7 @@
       </c>
       <c r="M57" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-67</v>
+        <v>-129</v>
       </c>
       <c r="N57" s="94" t="s">
         <v>31</v>
@@ -9661,7 +9661,7 @@
       </c>
       <c r="M58" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-220</v>
+        <v>-282</v>
       </c>
       <c r="N58" s="94" t="s">
         <v>31</v>
@@ -9759,7 +9759,7 @@
       </c>
       <c r="M59" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-210</v>
+        <v>-272</v>
       </c>
       <c r="N59" s="94" t="s">
         <v>31</v>
@@ -9856,7 +9856,7 @@
       </c>
       <c r="M60" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-210</v>
+        <v>-272</v>
       </c>
       <c r="N60" s="94" t="s">
         <v>31</v>
@@ -9951,7 +9951,7 @@
       </c>
       <c r="M61" s="58">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-210</v>
+        <v>-272</v>
       </c>
       <c r="N61" s="59" t="s">
         <v>36</v>
@@ -10139,7 +10139,7 @@
       </c>
       <c r="M63" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-164</v>
+        <v>-226</v>
       </c>
       <c r="N63" s="94" t="s">
         <v>31</v>
@@ -10237,7 +10237,7 @@
       </c>
       <c r="M64" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-328</v>
+        <v>-390</v>
       </c>
       <c r="N64" s="94" t="s">
         <v>31</v>
@@ -10335,7 +10335,7 @@
       </c>
       <c r="M65" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-301</v>
+        <v>-363</v>
       </c>
       <c r="N65" s="94" t="s">
         <v>31</v>
@@ -10433,7 +10433,7 @@
       </c>
       <c r="M66" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-270</v>
+        <v>-332</v>
       </c>
       <c r="N66" s="94" t="s">
         <v>31</v>
@@ -10531,7 +10531,7 @@
       </c>
       <c r="M67" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-240</v>
+        <v>-302</v>
       </c>
       <c r="N67" s="94" t="s">
         <v>31</v>
@@ -10629,7 +10629,7 @@
       </c>
       <c r="M68" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-209</v>
+        <v>-271</v>
       </c>
       <c r="N68" s="94" t="s">
         <v>31</v>
@@ -10727,7 +10727,7 @@
       </c>
       <c r="M69" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-179</v>
+        <v>-241</v>
       </c>
       <c r="N69" s="94" t="s">
         <v>31</v>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="M70" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-148</v>
+        <v>-210</v>
       </c>
       <c r="N70" s="94" t="s">
         <v>31</v>
@@ -10920,7 +10920,7 @@
       </c>
       <c r="M71" s="98">
         <f ca="1">Hitos4352[[#This Row],[FECHA FINAL]]-$E$9</f>
-        <v>-117</v>
+        <v>-179</v>
       </c>
       <c r="N71" s="94" t="s">
         <v>31</v>
@@ -12489,12 +12489,22 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12774,28 +12784,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12822,13 +12826,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>